--- a/Documentos/G5-PLA-Planilha de Avaliação QSW-2015-1.xlsx
+++ b/Documentos/G5-PLA-Planilha de Avaliação QSW-2015-1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="169">
   <si>
     <t>Verificação</t>
   </si>
@@ -141,9 +141,6 @@
 As evidências apresentadas para este resultado permitem assegurar: (ii) que as pessoas autorizadas a definir e a alterar requisitos foram identificadas? (ii) que existe um documento de requisitos que represente seu entendimento? (iii) que os requisitos foram aceitos pelo cliente ou um representante?</t>
   </si>
   <si>
-    <t>Template - Documento de Requisitos</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
 As evidências apresentadas para este resultado permitem assegurar que  há registros dos problemas e das não-conformidades identificadas nas avaliações e que estes são comunicados aos responsáveis pelos produtos/processos aplicáveis?</t>
   </si>
   <si>
-    <t>Template - Aprovação Requisitos</t>
-  </si>
-  <si>
     <t>Plano de Garantia da Qualidade - seções 3 , 6 e 8</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
 As evidências apresentadas para este resultado permitem assegurar que foi criada e mantida, ao longo do projeto, a rastreabilidade bidirecional entre os requisitos e demais produtos de trabalho, incluindo os planos do projeto e as unidades de código?</t>
   </si>
   <si>
-    <t>Template - Matriz Rastreabilidade</t>
-  </si>
-  <si>
     <t>GPR 2. As tarefas e os produtos de trabalho do projeto são dimensionados utilizando métodos apropriados.
 As evidências apresentadas para este resultado permitem assegurar que o tamanho e/ou a complexidade das tarefas e dos artefatos gerados no projeto foram estimados utilizando métodos adequados (ex: baseados na EAP ou estrutura equivalente, em técnicas de estimativa ou em dados históricos)?</t>
   </si>
@@ -207,9 +198,6 @@
   </si>
   <si>
     <t>G5 – GPR – Gerência de Projeto</t>
-  </si>
-  <si>
-    <t>Template - CheckList Requisitos</t>
   </si>
   <si>
     <t>GRE 5. Mudanças nos requisitos são gerenciadas ao longo do projeto.
@@ -559,12 +547,63 @@
     <t>GPR 28. (A partir do nível B) Questões que afetam os objetivos de qualidade e de desempenho do processo do projeto são alvo de análise de causa raiz.
 As evidências apresentadas para este questões que afetam os objetivos de qualidade e de desempenho do processo do projeto são alvo de análise de causa raiz?</t>
   </si>
+  <si>
+    <t>Documento de Configuração Seção 8</t>
+  </si>
+  <si>
+    <t>Gerencia de Configuração</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Documento de Requisitos</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>Documento de Aceitação</t>
+  </si>
+  <si>
+    <t>Aceitaçaõ Cliente</t>
+  </si>
+  <si>
+    <t>Documento Aceitação</t>
+  </si>
+  <si>
+    <t>Aceitação Equipe</t>
+  </si>
+  <si>
+    <t>Checklist Requisitos</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>Matriz de Rastreabilidade</t>
+  </si>
+  <si>
+    <t>Matriz</t>
+  </si>
+  <si>
+    <t>Checklist Planos</t>
+  </si>
+  <si>
+    <t>Proecsso</t>
+  </si>
+  <si>
+    <t>obs: não houveram mudanças nos requisitos</t>
+  </si>
+  <si>
+    <t>obs: não foram detectadas inconsistencias</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -692,6 +731,18 @@
       <sz val="12"/>
       <color rgb="FF0000D4"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1098,10 +1149,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,8 +1470,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2137,7 +2196,7 @@
     </row>
     <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="47"/>
@@ -2159,7 +2218,7 @@
     </row>
     <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1jICaV6Zm2XnO5f6yH61lH16lNs4TYjq8DgWy5D8GQkE/edit?usp=sharing/#heading=h.46w9myveby9z","Gerencia de Projeto")</f>
@@ -2167,7 +2226,7 @@
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -2267,7 +2326,7 @@
     <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="43"/>
@@ -2288,7 +2347,7 @@
     </row>
     <row r="12" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -2310,7 +2369,7 @@
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1jICaV6Zm2XnO5f6yH61lH16lNs4TYjq8DgWy5D8GQkE&amp;authuser=0/#heading=h.reg4mxnuhryh ","Gerencia de Projeto")</f>
@@ -2318,7 +2377,7 @@
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -2418,7 +2477,7 @@
     <row r="18" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="43"/>
@@ -2439,7 +2498,7 @@
     </row>
     <row r="19" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
@@ -2461,7 +2520,7 @@
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nhxeKGHLvZQqPFqeUpkNwjB78Cbj8DhMhfn9BlDmcPI&amp;authuser=0","Plano de Iteração")</f>
@@ -2469,7 +2528,7 @@
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -2569,7 +2628,7 @@
     <row r="25" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="43"/>
@@ -2590,7 +2649,7 @@
     </row>
     <row r="26" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
@@ -2612,7 +2671,7 @@
     </row>
     <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c8RYB-ZLFKl7pVXID_QY_LMIyLKTTLpjOr60f7_-DpU&amp;authuser=0","Plano de custos")</f>
@@ -2620,7 +2679,7 @@
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -2720,7 +2779,7 @@
     <row r="32" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="60"/>
       <c r="D32" s="43"/>
@@ -2741,7 +2800,7 @@
     </row>
     <row r="33" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="47"/>
@@ -2763,7 +2822,7 @@
     </row>
     <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -2866,7 +2925,7 @@
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="60"/>
       <c r="D39" s="43"/>
@@ -2887,7 +2946,7 @@
     </row>
     <row r="40" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -2909,7 +2968,7 @@
     </row>
     <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B41" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nhxeKGHLvZQqPFqeUpkNwjB78Cbj8DhMhfn9BlDmcPI&amp;authuser=0","Plano de Iteração")</f>
@@ -2917,7 +2976,7 @@
       </c>
       <c r="C41" s="58"/>
       <c r="D41" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
@@ -2936,7 +2995,7 @@
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B42" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c8RYB-ZLFKl7pVXID_QY_LMIyLKTTLpjOr60f7_-DpU&amp;authuser=0","Plano de custos")</f>
@@ -2944,7 +3003,7 @@
       </c>
       <c r="C42" s="58"/>
       <c r="D42" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
@@ -3024,7 +3083,7 @@
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="40"/>
       <c r="B46" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="60"/>
       <c r="D46" s="43"/>
@@ -3045,7 +3104,7 @@
     </row>
     <row r="47" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -3067,7 +3126,7 @@
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B48" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=17QFLQKT99ancqIKAOhZYhAEdw9RPZ8YnyitltjLjQWw&amp;authuser=0","Plano de riscos")</f>
@@ -3075,7 +3134,7 @@
       </c>
       <c r="C48" s="58"/>
       <c r="D48" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
@@ -3175,7 +3234,7 @@
     <row r="53" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="40"/>
       <c r="B53" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="60"/>
       <c r="D53" s="43"/>
@@ -3196,7 +3255,7 @@
     </row>
     <row r="54" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -3218,7 +3277,7 @@
     </row>
     <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B55" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1xcnfnlQJcti0T2F2H-VN_7gJBps9YX5AYQqvNxGs5to&amp;authuser=0","Recursos Humanos")</f>
@@ -3226,7 +3285,7 @@
       </c>
       <c r="C55" s="58"/>
       <c r="D55" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
@@ -3245,7 +3304,7 @@
     </row>
     <row r="56" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B56" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ZpPKXg3yucq25dKn9fXD0hjXLciSjBTK2fMZtAwWQPM&amp;authuser=0/#heading=h.ktuvruvrfvh4","Gerência de Projeto")</f>
@@ -3253,7 +3312,7 @@
       </c>
       <c r="C56" s="58"/>
       <c r="D56" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
@@ -3333,7 +3392,7 @@
     <row r="60" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="40"/>
       <c r="B60" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="60"/>
       <c r="D60" s="43"/>
@@ -3354,7 +3413,7 @@
     </row>
     <row r="61" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="47"/>
@@ -3376,7 +3435,7 @@
     </row>
     <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B62" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1xcnfnlQJcti0T2F2H-VN_7gJBps9YX5AYQqvNxGs5to&amp;authuser=0","Recursos")</f>
@@ -3384,7 +3443,7 @@
       </c>
       <c r="C62" s="58"/>
       <c r="D62" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
@@ -3484,7 +3543,7 @@
     <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="40"/>
       <c r="B67" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="60"/>
       <c r="D67" s="43"/>
@@ -3505,7 +3564,7 @@
     </row>
     <row r="68" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B68" s="27"/>
       <c r="C68" s="47"/>
@@ -3527,7 +3586,7 @@
     </row>
     <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
@@ -3630,7 +3689,7 @@
     <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="40"/>
       <c r="B74" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C74" s="60"/>
       <c r="D74" s="43"/>
@@ -3651,7 +3710,7 @@
     </row>
     <row r="75" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -3673,7 +3732,7 @@
     </row>
     <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B76" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ZpPKXg3yucq25dKn9fXD0hjXLciSjBTK2fMZtAwWQPM&amp;authuser=0/#heading=h.rj19vq23zqah","Plano de Projeto")</f>
@@ -3681,7 +3740,7 @@
       </c>
       <c r="C76" s="58"/>
       <c r="D76" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E76" s="35"/>
       <c r="F76" s="35"/>
@@ -3781,7 +3840,7 @@
     <row r="81" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="40"/>
       <c r="B81" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C81" s="60"/>
       <c r="D81" s="43"/>
@@ -3802,7 +3861,7 @@
     </row>
     <row r="82" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
@@ -3824,7 +3883,7 @@
     </row>
     <row r="83" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B83" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B2sP-KFysvdhblM2djF4eGZFQlk&amp;authuser=0","BPMN")</f>
@@ -3832,7 +3891,7 @@
       </c>
       <c r="C83" s="58"/>
       <c r="D83" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E83" s="35"/>
       <c r="F83" s="35"/>
@@ -3932,7 +3991,7 @@
     <row r="88" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="40"/>
       <c r="B88" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C88" s="60"/>
       <c r="D88" s="43"/>
@@ -3953,7 +4012,7 @@
     </row>
     <row r="89" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B89" s="27"/>
       <c r="C89" s="47"/>
@@ -3975,7 +4034,7 @@
     </row>
     <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B90" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1fJ9UDqFwU4A-w1tMLjjVi0qgHcZonYBNv7fb4mMPNJE&amp;authuser=0","Estudo de Viabilidade")</f>
@@ -3983,7 +4042,7 @@
       </c>
       <c r="C90" s="58"/>
       <c r="D90" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E90" s="35"/>
       <c r="F90" s="35"/>
@@ -4083,7 +4142,7 @@
     <row r="95" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="40"/>
       <c r="B95" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C95" s="60"/>
       <c r="D95" s="43"/>
@@ -4104,7 +4163,7 @@
     </row>
     <row r="96" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="47"/>
@@ -4126,7 +4185,7 @@
     </row>
     <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B97" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14N1FEQnhMSAWJoC5hk7f9n3CFFwYlVmZRXgbuWZwip4&amp;authuser=0","Modelo para proposta")</f>
@@ -4134,7 +4193,7 @@
       </c>
       <c r="C97" s="58"/>
       <c r="D97" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E97" s="35"/>
       <c r="F97" s="35"/>
@@ -4234,7 +4293,7 @@
     <row r="102" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="40"/>
       <c r="B102" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C102" s="60"/>
       <c r="D102" s="43"/>
@@ -4255,7 +4314,7 @@
     </row>
     <row r="103" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B103" s="27"/>
       <c r="C103" s="47"/>
@@ -4277,7 +4336,7 @@
     </row>
     <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B104" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1xcnfnlQJcti0T2F2H-VN_7gJBps9YX5AYQqvNxGs5to&amp;authuser=0","Recursos")</f>
@@ -4285,7 +4344,7 @@
       </c>
       <c r="C104" s="58"/>
       <c r="D104" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E104" s="35"/>
       <c r="F104" s="35"/>
@@ -4304,7 +4363,7 @@
     </row>
     <row r="105" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B105" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1jICaV6Zm2XnO5f6yH61lH16lNs4TYjq8DgWy5D8GQkE/edit?usp=sharing/#heading=h.46w9myveby9z","Gerencia de Projeto")</f>
@@ -4312,7 +4371,7 @@
       </c>
       <c r="C105" s="58"/>
       <c r="D105" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E105" s="35"/>
       <c r="F105" s="35"/>
@@ -4331,7 +4390,7 @@
     </row>
     <row r="106" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B106" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1jICaV6Zm2XnO5f6yH61lH16lNs4TYjq8DgWy5D8GQkE&amp;authuser=0/#heading=h.reg4mxnuhryh ","Gerencia de Projeto")</f>
@@ -4339,7 +4398,7 @@
       </c>
       <c r="C106" s="58"/>
       <c r="D106" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E106" s="35"/>
       <c r="F106" s="35"/>
@@ -4358,7 +4417,7 @@
     </row>
     <row r="107" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B107" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y_T_nbwawMtgPL9Yefb9jpYKxooxdFs6zn0exEBaocg&amp;authuser=0","Cronograma")</f>
@@ -4366,7 +4425,7 @@
       </c>
       <c r="C107" s="58"/>
       <c r="D107" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E107" s="35"/>
       <c r="F107" s="35"/>
@@ -4406,7 +4465,7 @@
     <row r="109" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="40"/>
       <c r="B109" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C109" s="60"/>
       <c r="D109" s="43"/>
@@ -4427,7 +4486,7 @@
     </row>
     <row r="110" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="99" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B110" s="27"/>
       <c r="C110" s="47"/>
@@ -4449,7 +4508,7 @@
     </row>
     <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B111" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1xcnfnlQJcti0T2F2H-VN_7gJBps9YX5AYQqvNxGs5to&amp;authuser=0","Recursos")</f>
@@ -4457,7 +4516,7 @@
       </c>
       <c r="C111" s="58"/>
       <c r="D111" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E111" s="35"/>
       <c r="F111" s="35"/>
@@ -4557,7 +4616,7 @@
     <row r="116" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="40"/>
       <c r="B116" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C116" s="60"/>
       <c r="D116" s="43"/>
@@ -4578,7 +4637,7 @@
     </row>
     <row r="117" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="99" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B117" s="27"/>
       <c r="C117" s="47"/>
@@ -4600,7 +4659,7 @@
     </row>
     <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B118" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=17QFLQKT99ancqIKAOhZYhAEdw9RPZ8YnyitltjLjQWw&amp;authuser=0","Plano de riscos")</f>
@@ -4608,7 +4667,7 @@
       </c>
       <c r="C118" s="58"/>
       <c r="D118" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E118" s="35"/>
       <c r="F118" s="35"/>
@@ -4708,7 +4767,7 @@
     <row r="123" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="40"/>
       <c r="B123" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C123" s="60"/>
       <c r="D123" s="43"/>
@@ -4729,7 +4788,7 @@
     </row>
     <row r="124" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="99" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B124" s="27"/>
       <c r="C124" s="47"/>
@@ -4751,7 +4810,7 @@
     </row>
     <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B125" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14N1FEQnhMSAWJoC5hk7f9n3CFFwYlVmZRXgbuWZwip4&amp;authuser=0","Modelo")</f>
@@ -4759,7 +4818,7 @@
       </c>
       <c r="C125" s="58"/>
       <c r="D125" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E125" s="35"/>
       <c r="F125" s="35"/>
@@ -4859,7 +4918,7 @@
     <row r="130" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="40"/>
       <c r="B130" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C130" s="60"/>
       <c r="D130" s="43"/>
@@ -4880,7 +4939,7 @@
     </row>
     <row r="131" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="99" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B131" s="27"/>
       <c r="C131" s="47"/>
@@ -4902,7 +4961,7 @@
     </row>
     <row r="132" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B132" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ZpPKXg3yucq25dKn9fXD0hjXLciSjBTK2fMZtAwWQPM&amp;authuser=0/#heading=h.aw510sl75gd3","Plano de Projeto")</f>
@@ -4910,7 +4969,7 @@
       </c>
       <c r="C132" s="58"/>
       <c r="D132" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E132" s="35"/>
       <c r="F132" s="35"/>
@@ -5010,7 +5069,7 @@
     <row r="137" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="40"/>
       <c r="B137" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C137" s="60"/>
       <c r="D137" s="43"/>
@@ -5031,7 +5090,7 @@
     </row>
     <row r="138" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B138" s="27"/>
       <c r="C138" s="47"/>
@@ -5053,7 +5112,7 @@
     </row>
     <row r="139" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B139" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1fJ9UDqFwU4A-w1tMLjjVi0qgHcZonYBNv7fb4mMPNJE&amp;authuser=0","Viabilidade")</f>
@@ -5061,7 +5120,7 @@
       </c>
       <c r="C139" s="58"/>
       <c r="D139" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E139" s="35"/>
       <c r="F139" s="35"/>
@@ -5161,7 +5220,7 @@
     <row r="144" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="40"/>
       <c r="B144" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C144" s="60"/>
       <c r="D144" s="43"/>
@@ -5182,7 +5241,7 @@
     </row>
     <row r="145" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B145" s="27"/>
       <c r="C145" s="47"/>
@@ -5204,7 +5263,7 @@
     </row>
     <row r="146" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B146" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=17QFLQKT99ancqIKAOhZYhAEdw9RPZ8YnyitltjLjQWw&amp;authuser=0","Plano de riscos")</f>
@@ -5212,7 +5271,7 @@
       </c>
       <c r="C146" s="58"/>
       <c r="D146" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E146" s="35"/>
       <c r="F146" s="35"/>
@@ -5312,7 +5371,7 @@
     <row r="151" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="40"/>
       <c r="B151" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C151" s="60"/>
       <c r="D151" s="43"/>
@@ -5333,7 +5392,7 @@
     </row>
     <row r="152" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B152" s="27"/>
       <c r="C152" s="47"/>
@@ -5355,7 +5414,7 @@
     </row>
     <row r="153" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B153" s="35"/>
       <c r="C153" s="35"/>
@@ -5458,7 +5517,7 @@
     <row r="158" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="40"/>
       <c r="B158" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C158" s="60"/>
       <c r="D158" s="43"/>
@@ -5479,7 +5538,7 @@
     </row>
     <row r="159" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B159" s="27"/>
       <c r="C159" s="47"/>
@@ -5501,7 +5560,7 @@
     </row>
     <row r="160" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B160" s="35"/>
       <c r="C160" s="35"/>
@@ -5604,7 +5663,7 @@
     <row r="165" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="40"/>
       <c r="B165" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C165" s="60"/>
       <c r="D165" s="43"/>
@@ -5625,7 +5684,7 @@
     </row>
     <row r="166" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B166" s="27"/>
       <c r="C166" s="47"/>
@@ -5647,7 +5706,7 @@
     </row>
     <row r="167" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B167" s="35"/>
       <c r="C167" s="35"/>
@@ -5750,7 +5809,7 @@
     <row r="172" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="40"/>
       <c r="B172" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C172" s="60"/>
       <c r="D172" s="43"/>
@@ -5771,7 +5830,7 @@
     </row>
     <row r="173" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B173" s="27"/>
       <c r="C173" s="47"/>
@@ -5793,7 +5852,7 @@
     </row>
     <row r="174" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B174" s="35"/>
       <c r="C174" s="35"/>
@@ -5896,7 +5955,7 @@
     <row r="179" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="40"/>
       <c r="B179" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C179" s="60"/>
       <c r="D179" s="43"/>
@@ -5917,7 +5976,7 @@
     </row>
     <row r="180" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B180" s="27"/>
       <c r="C180" s="47"/>
@@ -5939,7 +5998,7 @@
     </row>
     <row r="181" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B181" s="35"/>
       <c r="C181" s="35"/>
@@ -6042,7 +6101,7 @@
     <row r="186" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="40"/>
       <c r="B186" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C186" s="60"/>
       <c r="D186" s="43"/>
@@ -6063,7 +6122,7 @@
     </row>
     <row r="187" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B187" s="27"/>
       <c r="C187" s="47"/>
@@ -6085,7 +6144,7 @@
     </row>
     <row r="188" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B188" s="35"/>
       <c r="C188" s="35"/>
@@ -6188,7 +6247,7 @@
     <row r="193" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="40"/>
       <c r="B193" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C193" s="60"/>
       <c r="D193" s="43"/>
@@ -6209,7 +6268,7 @@
     </row>
     <row r="194" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B194" s="27"/>
       <c r="C194" s="47"/>
@@ -6231,7 +6290,7 @@
     </row>
     <row r="195" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B195" s="35"/>
       <c r="C195" s="35"/>
@@ -6334,7 +6393,7 @@
     <row r="200" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="40"/>
       <c r="B200" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C200" s="60"/>
       <c r="D200" s="43"/>
@@ -6355,7 +6414,7 @@
     </row>
     <row r="201" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B201" s="27"/>
       <c r="C201" s="47"/>
@@ -6377,7 +6436,7 @@
     </row>
     <row r="202" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B202" s="35"/>
       <c r="C202" s="35"/>
@@ -6480,7 +6539,7 @@
     <row r="207" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="40"/>
       <c r="B207" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C207" s="60"/>
       <c r="D207" s="43"/>
@@ -6501,7 +6560,7 @@
     </row>
     <row r="208" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B208" s="27"/>
       <c r="C208" s="47"/>
@@ -6523,7 +6582,7 @@
     </row>
     <row r="209" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B209" s="35"/>
       <c r="C209" s="35"/>
@@ -6626,7 +6685,7 @@
     <row r="214" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="40"/>
       <c r="B214" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C214" s="60"/>
       <c r="D214" s="43"/>
@@ -6647,7 +6706,7 @@
     </row>
     <row r="215" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B215" s="27"/>
       <c r="C215" s="47"/>
@@ -6669,7 +6728,7 @@
     </row>
     <row r="216" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
@@ -6772,7 +6831,7 @@
     <row r="221" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="40"/>
       <c r="B221" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C221" s="60"/>
       <c r="D221" s="43"/>
@@ -6813,7 +6872,7 @@
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B223" s="80"/>
       <c r="C223" s="80"/>
@@ -6857,7 +6916,7 @@
     </row>
     <row r="225" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B225" s="89"/>
       <c r="C225" s="90"/>
@@ -6879,7 +6938,7 @@
     </row>
     <row r="226" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B226" s="94"/>
       <c r="C226" s="95"/>
@@ -7002,7 +7061,7 @@
     <row r="232" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="26"/>
       <c r="B232" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C232" s="60"/>
       <c r="D232" s="43"/>
@@ -7023,7 +7082,7 @@
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A233" s="100" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B233" s="101"/>
       <c r="C233" s="102"/>
@@ -7045,7 +7104,7 @@
     </row>
     <row r="234" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="103" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B234" s="106"/>
       <c r="C234" s="110"/>
@@ -7168,7 +7227,7 @@
     <row r="240" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="26"/>
       <c r="B240" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C240" s="60"/>
       <c r="D240" s="43"/>
@@ -7189,7 +7248,7 @@
     </row>
     <row r="241" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="103" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B241" s="107"/>
       <c r="C241" s="109"/>
@@ -7312,7 +7371,7 @@
     <row r="247" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="26"/>
       <c r="B247" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C247" s="60"/>
       <c r="D247" s="43"/>
@@ -7333,7 +7392,7 @@
     </row>
     <row r="248" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="103" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B248" s="109"/>
       <c r="C248" s="109"/>
@@ -7456,7 +7515,7 @@
     <row r="254" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="26"/>
       <c r="B254" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C254" s="60"/>
       <c r="D254" s="43"/>
@@ -7477,7 +7536,7 @@
     </row>
     <row r="255" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B255" s="109"/>
       <c r="C255" s="109"/>
@@ -7600,7 +7659,7 @@
     <row r="261" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="26"/>
       <c r="B261" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C261" s="60"/>
       <c r="D261" s="43"/>
@@ -7621,7 +7680,7 @@
     </row>
     <row r="262" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B262" s="109"/>
       <c r="C262" s="109"/>
@@ -7744,7 +7803,7 @@
     <row r="268" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="26"/>
       <c r="B268" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C268" s="60"/>
       <c r="D268" s="43"/>
@@ -7765,7 +7824,7 @@
     </row>
     <row r="269" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="103" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B269" s="109"/>
       <c r="C269" s="109"/>
@@ -7888,7 +7947,7 @@
     <row r="275" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="26"/>
       <c r="B275" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C275" s="60"/>
       <c r="D275" s="43"/>
@@ -7909,7 +7968,7 @@
     </row>
     <row r="276" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="103" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B276" s="109"/>
       <c r="C276" s="109"/>
@@ -8032,7 +8091,7 @@
     <row r="282" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="26"/>
       <c r="B282" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C282" s="60"/>
       <c r="D282" s="43"/>
@@ -8053,7 +8112,7 @@
     </row>
     <row r="283" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="103" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B283" s="109"/>
       <c r="C283" s="109"/>
@@ -8176,7 +8235,7 @@
     <row r="289" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="26"/>
       <c r="B289" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C289" s="60"/>
       <c r="D289" s="43"/>
@@ -8197,7 +8256,7 @@
     </row>
     <row r="290" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="103" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B290" s="109"/>
       <c r="C290" s="109"/>
@@ -8320,7 +8379,7 @@
     <row r="296" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="26"/>
       <c r="B296" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C296" s="60"/>
       <c r="D296" s="43"/>
@@ -8341,7 +8400,7 @@
     </row>
     <row r="297" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="103" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B297" s="109"/>
       <c r="C297" s="109"/>
@@ -8464,7 +8523,7 @@
     <row r="303" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="26"/>
       <c r="B303" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C303" s="60"/>
       <c r="D303" s="43"/>
@@ -8485,7 +8544,7 @@
     </row>
     <row r="304" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="103" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B304" s="109"/>
       <c r="C304" s="109"/>
@@ -8608,7 +8667,7 @@
     <row r="310" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="26"/>
       <c r="B310" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C310" s="60"/>
       <c r="D310" s="43"/>
@@ -8629,7 +8688,7 @@
     </row>
     <row r="311" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="103" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B311" s="109"/>
       <c r="C311" s="109"/>
@@ -8752,7 +8811,7 @@
     <row r="317" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="26"/>
       <c r="B317" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C317" s="60"/>
       <c r="D317" s="43"/>
@@ -8773,7 +8832,7 @@
     </row>
     <row r="318" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="103" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B318" s="109"/>
       <c r="C318" s="109"/>
@@ -8896,7 +8955,7 @@
     <row r="324" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="26"/>
       <c r="B324" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C324" s="60"/>
       <c r="D324" s="43"/>
@@ -8950,8 +9009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9090,11 +9149,15 @@
     </row>
     <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>153</v>
+      </c>
       <c r="C6" s="35"/>
-      <c r="D6" s="37"/>
+      <c r="D6" s="112" t="s">
+        <v>154</v>
+      </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -9111,10 +9174,16 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>156</v>
+      </c>
       <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="D7" s="112" t="s">
+        <v>154</v>
+      </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -9131,10 +9200,16 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>158</v>
+      </c>
       <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="D8" s="112" t="s">
+        <v>154</v>
+      </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -9193,7 +9268,7 @@
     <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
@@ -9212,9 +9287,9 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="24"/>
@@ -9236,11 +9311,15 @@
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="29"/>
+        <v>159</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>160</v>
+      </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="37"/>
+      <c r="D13" s="112" t="s">
+        <v>154</v>
+      </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -9257,10 +9336,16 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>162</v>
+      </c>
       <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="D14" s="112" t="s">
+        <v>154</v>
+      </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -9339,7 +9424,7 @@
     <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -9360,7 +9445,7 @@
     </row>
     <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -9382,11 +9467,15 @@
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="29"/>
+        <v>163</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="C20" s="35"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="112" t="s">
+        <v>154</v>
+      </c>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
@@ -9485,7 +9574,7 @@
     <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -9506,7 +9595,7 @@
     </row>
     <row r="26" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -9528,11 +9617,15 @@
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="29"/>
+        <v>165</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>162</v>
+      </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="112" t="s">
+        <v>154</v>
+      </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
@@ -9549,7 +9642,9 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
+      <c r="A28" s="113" t="s">
+        <v>168</v>
+      </c>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -9631,7 +9726,7 @@
     <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -9652,7 +9747,7 @@
     </row>
     <row r="33" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -9674,11 +9769,15 @@
     </row>
     <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="29"/>
+        <v>56</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="37"/>
+      <c r="D34" s="112" t="s">
+        <v>154</v>
+      </c>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -9696,11 +9795,15 @@
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="29"/>
+        <v>57</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>166</v>
+      </c>
       <c r="C35" s="35"/>
-      <c r="D35" s="37"/>
+      <c r="D35" s="112" t="s">
+        <v>154</v>
+      </c>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -9717,7 +9820,9 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
+      <c r="A36" s="113" t="s">
+        <v>167</v>
+      </c>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -9779,7 +9884,7 @@
     <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="68"/>
       <c r="B39" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -9820,7 +9925,7 @@
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B41" s="80"/>
       <c r="C41" s="80"/>
@@ -9864,7 +9969,7 @@
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B43" s="89"/>
       <c r="C43" s="90"/>
@@ -9886,7 +9991,7 @@
     </row>
     <row r="44" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B44" s="94"/>
       <c r="C44" s="95"/>
@@ -10009,7 +10114,7 @@
     <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
@@ -10030,7 +10135,7 @@
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="100" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B51" s="101"/>
       <c r="C51" s="102"/>
@@ -10052,7 +10157,7 @@
     </row>
     <row r="52" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="103" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B52" s="106"/>
       <c r="C52" s="110"/>
@@ -10175,7 +10280,7 @@
     <row r="58" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26"/>
       <c r="B58" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
@@ -10196,7 +10301,7 @@
     </row>
     <row r="59" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="103" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B59" s="107"/>
       <c r="C59" s="109"/>
@@ -10319,7 +10424,7 @@
     <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
       <c r="B65" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="43"/>
@@ -10340,7 +10445,7 @@
     </row>
     <row r="66" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="103" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B66" s="109"/>
       <c r="C66" s="109"/>
@@ -10463,7 +10568,7 @@
     <row r="72" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="43"/>
       <c r="D72" s="43"/>
@@ -10484,7 +10589,7 @@
     </row>
     <row r="73" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B73" s="109"/>
       <c r="C73" s="109"/>
@@ -10607,7 +10712,7 @@
     <row r="79" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
       <c r="B79" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C79" s="43"/>
       <c r="D79" s="43"/>
@@ -10628,7 +10733,7 @@
     </row>
     <row r="80" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B80" s="109"/>
       <c r="C80" s="109"/>
@@ -10751,7 +10856,7 @@
     <row r="86" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
       <c r="B86" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C86" s="43"/>
       <c r="D86" s="43"/>
@@ -10772,7 +10877,7 @@
     </row>
     <row r="87" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="103" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B87" s="109"/>
       <c r="C87" s="109"/>
@@ -10895,7 +11000,7 @@
     <row r="93" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
       <c r="B93" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C93" s="43"/>
       <c r="D93" s="43"/>
@@ -10916,7 +11021,7 @@
     </row>
     <row r="94" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="103" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B94" s="109"/>
       <c r="C94" s="109"/>
@@ -11039,7 +11144,7 @@
     <row r="100" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
       <c r="B100" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
@@ -11060,7 +11165,7 @@
     </row>
     <row r="101" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="103" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B101" s="109"/>
       <c r="C101" s="109"/>
@@ -11183,7 +11288,7 @@
     <row r="107" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="26"/>
       <c r="B107" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C107" s="43"/>
       <c r="D107" s="43"/>
@@ -11204,7 +11309,7 @@
     </row>
     <row r="108" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="103" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B108" s="109"/>
       <c r="C108" s="109"/>
@@ -11327,7 +11432,7 @@
     <row r="114" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="26"/>
       <c r="B114" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C114" s="43"/>
       <c r="D114" s="43"/>
@@ -11348,7 +11453,7 @@
     </row>
     <row r="115" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="103" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B115" s="109"/>
       <c r="C115" s="109"/>
@@ -11471,7 +11576,7 @@
     <row r="121" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="26"/>
       <c r="B121" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C121" s="43"/>
       <c r="D121" s="43"/>
@@ -11492,7 +11597,7 @@
     </row>
     <row r="122" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="103" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B122" s="109"/>
       <c r="C122" s="109"/>
@@ -11615,7 +11720,7 @@
     <row r="128" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="26"/>
       <c r="B128" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C128" s="43"/>
       <c r="D128" s="43"/>
@@ -11636,7 +11741,7 @@
     </row>
     <row r="129" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="103" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B129" s="109"/>
       <c r="C129" s="109"/>
@@ -11759,7 +11864,7 @@
     <row r="135" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="26"/>
       <c r="B135" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C135" s="43"/>
       <c r="D135" s="43"/>
@@ -11780,7 +11885,7 @@
     </row>
     <row r="136" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="103" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B136" s="109"/>
       <c r="C136" s="109"/>
@@ -11903,7 +12008,7 @@
     <row r="142" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="26"/>
       <c r="B142" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C142" s="43"/>
       <c r="D142" s="43"/>
@@ -11923,7 +12028,19 @@
       <c r="R142" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
+    <hyperlink ref="D20" r:id="rId6"/>
+    <hyperlink ref="D27" r:id="rId7"/>
+    <hyperlink ref="D34" r:id="rId8"/>
+    <hyperlink ref="D35" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -12078,7 +12195,7 @@
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -12097,7 +12214,7 @@
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="38" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1ZpPKXg3yucq25dKn9fXD0hjXLciSjBTK2fMZtAwWQPM/edit","Plano de  Projeto")</f>
@@ -12105,7 +12222,7 @@
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -12124,7 +12241,7 @@
     </row>
     <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="38" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1hoouq03XL3lnF1Fx68mvv8KoxhPvpH3ZSmiwo6m5NZU/edit","Plano de Garantia da Qualidade")</f>
@@ -12132,7 +12249,7 @@
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -12192,7 +12309,7 @@
     <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -12213,7 +12330,7 @@
     </row>
     <row r="12" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="24"/>
@@ -12235,7 +12352,7 @@
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="38" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1-oGMk4V-6IKry8iVJvImodSxCY3gwZ20WSp81GwsFCs/edit#heading=h.ija6bjln1eq4","G5-GQA")</f>
@@ -12243,7 +12360,7 @@
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -12262,7 +12379,7 @@
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="38" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/0B2hhHZF4uRVDfnFFNXZndVU0eEdQUkczRWh3OW9GVkVITFN3by1OUUl2bk5JV1VSbHBhaDA/0B2hhHZF4uRVDfngxQXp0UXkzWnplcm5YdEx6dzl3OWZxVjV2NVptY0h4cWw4bGp5RkFwUlU","BPMN")</f>
@@ -12270,7 +12387,7 @@
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -12350,7 +12467,7 @@
     <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -12371,7 +12488,7 @@
     </row>
     <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="24"/>
@@ -12393,7 +12510,7 @@
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="38" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1-oGMk4V-6IKry8iVJvImodSxCY3gwZ20WSp81GwsFCs/edit#heading=h.ija6bjln1eq4","G5-GQA")</f>
@@ -12401,7 +12518,7 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -12420,7 +12537,7 @@
     </row>
     <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="38" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1VEMM2wsvgsuJqjymCeihZKtI1TCRN9wcVlWpYniwbG0/edit","Checklist de desvios")</f>
@@ -12428,7 +12545,7 @@
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -12447,7 +12564,7 @@
     </row>
     <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="38" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Z9M6KD115ZUOF0Z-V8vP9d-oCuxvECYhgISaVeLZYRg/edit?usp=drive_web","Documento Melhoria de Processo")</f>
@@ -12455,7 +12572,7 @@
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -12535,7 +12652,7 @@
     <row r="26" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
@@ -12556,7 +12673,7 @@
     </row>
     <row r="27" spans="1:18" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="24"/>
@@ -12578,7 +12695,7 @@
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="38" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1-oGMk4V-6IKry8iVJvImodSxCY3gwZ20WSp81GwsFCs/edit#heading=h.ija6bjln1eq4","G5-GQA")</f>
@@ -12586,7 +12703,7 @@
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -12605,7 +12722,7 @@
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="38" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1e88SzMIKeNdUop-0udgkabUbqtGuMAq1lmAkMLs9XOs/edit","Checklist condução de projeto")</f>
@@ -12613,7 +12730,7 @@
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -12693,7 +12810,7 @@
     <row r="33" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="63"/>
@@ -12734,7 +12851,7 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B35" s="80"/>
       <c r="C35" s="80"/>
@@ -12778,7 +12895,7 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B37" s="89"/>
       <c r="C37" s="90"/>
@@ -12800,7 +12917,7 @@
     </row>
     <row r="38" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B38" s="94"/>
       <c r="C38" s="95"/>
@@ -12923,7 +13040,7 @@
     <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
@@ -12944,7 +13061,7 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="100" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B45" s="101"/>
       <c r="C45" s="102"/>
@@ -12966,7 +13083,7 @@
     </row>
     <row r="46" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="103" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B46" s="104"/>
       <c r="C46" s="105"/>
@@ -13089,7 +13206,7 @@
     <row r="52" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
       <c r="B52" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
@@ -13110,7 +13227,7 @@
     </row>
     <row r="53" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="103" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B53" s="107"/>
       <c r="C53" s="109"/>
@@ -13233,7 +13350,7 @@
     <row r="59" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26"/>
       <c r="B59" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
@@ -13254,7 +13371,7 @@
     </row>
     <row r="60" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B60" s="109"/>
       <c r="C60" s="109"/>
@@ -13377,7 +13494,7 @@
     <row r="66" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
       <c r="B66" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="52"/>
       <c r="D66" s="52"/>
@@ -13398,7 +13515,7 @@
     </row>
     <row r="67" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B67" s="109"/>
       <c r="C67" s="109"/>
@@ -13521,7 +13638,7 @@
     <row r="73" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="B73" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C73" s="52"/>
       <c r="D73" s="52"/>
@@ -13542,7 +13659,7 @@
     </row>
     <row r="74" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="103" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B74" s="109"/>
       <c r="C74" s="109"/>
@@ -13665,7 +13782,7 @@
     <row r="80" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="26"/>
       <c r="B80" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" s="52"/>
       <c r="D80" s="52"/>
@@ -13686,7 +13803,7 @@
     </row>
     <row r="81" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="103" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B81" s="109"/>
       <c r="C81" s="109"/>
@@ -13809,7 +13926,7 @@
     <row r="87" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="26"/>
       <c r="B87" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C87" s="52"/>
       <c r="D87" s="52"/>
@@ -13830,7 +13947,7 @@
     </row>
     <row r="88" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="103" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B88" s="109"/>
       <c r="C88" s="109"/>
@@ -13953,7 +14070,7 @@
     <row r="94" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
       <c r="B94" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C94" s="52"/>
       <c r="D94" s="52"/>
@@ -13974,7 +14091,7 @@
     </row>
     <row r="95" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="103" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B95" s="109"/>
       <c r="C95" s="109"/>
@@ -14097,7 +14214,7 @@
     <row r="101" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="26"/>
       <c r="B101" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C101" s="52"/>
       <c r="D101" s="52"/>
@@ -14118,7 +14235,7 @@
     </row>
     <row r="102" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="103" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B102" s="109"/>
       <c r="C102" s="109"/>
@@ -14241,7 +14358,7 @@
     <row r="108" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="26"/>
       <c r="B108" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C108" s="52"/>
       <c r="D108" s="52"/>
@@ -14262,7 +14379,7 @@
     </row>
     <row r="109" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="103" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B109" s="109"/>
       <c r="C109" s="109"/>
@@ -14385,7 +14502,7 @@
     <row r="115" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="26"/>
       <c r="B115" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
@@ -14406,7 +14523,7 @@
     </row>
     <row r="116" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="103" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B116" s="109"/>
       <c r="C116" s="109"/>
@@ -14529,7 +14646,7 @@
     <row r="122" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="26"/>
       <c r="B122" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
@@ -14715,7 +14832,7 @@
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
@@ -14815,7 +14932,7 @@
     <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="64"/>
       <c r="B11" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
@@ -14836,7 +14953,7 @@
     </row>
     <row r="12" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -14858,7 +14975,7 @@
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Tovuu2t_8t0XTl9AqmlUExnxBFv-vEY-vkxEtprOyck/edit#heading=h.sdd9yfud2u18","Plano de Verificação")</f>
@@ -14866,7 +14983,7 @@
       </c>
       <c r="C13" s="75"/>
       <c r="D13" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="75"/>
       <c r="F13" s="75"/>
@@ -14885,7 +15002,7 @@
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Tovuu2t_8t0XTl9AqmlUExnxBFv-vEY-vkxEtprOyck/edit#","Plano de Verificação")</f>
@@ -14893,7 +15010,7 @@
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
@@ -14973,7 +15090,7 @@
     <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="64"/>
       <c r="B18" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -14994,7 +15111,7 @@
     </row>
     <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -15016,7 +15133,7 @@
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Tovuu2t_8t0XTl9AqmlUExnxBFv-vEY-vkxEtprOyck/edit#heading=h.6e757vb4k8jg","Plano de Verificação")</f>
@@ -15024,7 +15141,7 @@
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
@@ -15043,7 +15160,7 @@
     </row>
     <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Tovuu2t_8t0XTl9AqmlUExnxBFv-vEY-vkxEtprOyck/edit#heading=h.t05ndpzcqokf","Plano de Verificação")</f>
@@ -15051,7 +15168,7 @@
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
@@ -15070,7 +15187,7 @@
     </row>
     <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B22" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Tovuu2t_8t0XTl9AqmlUExnxBFv-vEY-vkxEtprOyck/edit#","Plano de Verificação")</f>
@@ -15078,7 +15195,7 @@
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
@@ -15138,7 +15255,7 @@
     <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
       <c r="B25" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
@@ -15159,7 +15276,7 @@
     </row>
     <row r="26" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -15181,14 +15298,14 @@
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="75"/>
       <c r="F27" s="75"/>
@@ -15207,7 +15324,7 @@
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B28" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbbm9oR2xiZk1TcG8&amp;authuser=0","Documento de Aceitação dos Testes")</f>
@@ -15215,7 +15332,7 @@
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="75"/>
       <c r="F28" s="75"/>
@@ -15234,7 +15351,7 @@
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B29" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbWVZ5cTlRV3ZJNzA&amp;authuser=0","Checklist Análise Estática")</f>
@@ -15242,7 +15359,7 @@
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="75"/>
       <c r="F29" s="75"/>
@@ -15261,7 +15378,7 @@
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="92" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B30" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbc1F0UEE4SjZhdU0&amp;authuser=0","Checklist Código Fonte")</f>
@@ -15307,7 +15424,7 @@
     <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="64"/>
       <c r="B32" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>
@@ -15328,7 +15445,7 @@
     </row>
     <row r="33" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -15350,7 +15467,7 @@
     </row>
     <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B34" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1t9J2y7N6f1XhWdxoORG9WXB7SzHiilR1kPJX9KWgSwQ/edit#gid=1917714176","Relatório de Não Conformidade")</f>
@@ -15358,7 +15475,7 @@
       </c>
       <c r="C34" s="75"/>
       <c r="D34" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="75"/>
       <c r="F34" s="75"/>
@@ -15377,14 +15494,14 @@
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B35" s="86" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C35" s="75"/>
       <c r="D35" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="75"/>
       <c r="F35" s="75"/>
@@ -15464,7 +15581,7 @@
     <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64"/>
       <c r="B39" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="65"/>
@@ -15485,7 +15602,7 @@
     </row>
     <row r="40" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -15507,7 +15624,7 @@
     </row>
     <row r="41" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B41" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbWVZ5cTlRV3ZJNzA&amp;authuser=0","Checklist Análise Estática")</f>
@@ -15532,7 +15649,7 @@
     </row>
     <row r="42" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="92" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B42" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbc1F0UEE4SjZhdU0&amp;authuser=0","Checklist Código Fonte")</f>
@@ -15540,7 +15657,7 @@
       </c>
       <c r="C42" s="75"/>
       <c r="D42" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="75"/>
       <c r="F42" s="75"/>
@@ -15559,7 +15676,7 @@
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B43" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Tovuu2t_8t0XTl9AqmlUExnxBFv-vEY-vkxEtprOyck/edit#heading=h.6e757vb4k8jg","Plano de Verificação")</f>
@@ -15567,7 +15684,7 @@
       </c>
       <c r="C43" s="75"/>
       <c r="D43" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="75"/>
       <c r="F43" s="75"/>
@@ -15586,7 +15703,7 @@
     </row>
     <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B44" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1t9J2y7N6f1XhWdxoORG9WXB7SzHiilR1kPJX9KWgSwQ/edit#gid=1917714176","Relatório de Não Conformidade")</f>
@@ -15632,7 +15749,7 @@
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="64"/>
       <c r="B46" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="65"/>
       <c r="D46" s="65"/>
@@ -15673,7 +15790,7 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B48" s="80"/>
       <c r="C48" s="80"/>
@@ -15717,7 +15834,7 @@
     </row>
     <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B50" s="89"/>
       <c r="C50" s="90"/>
@@ -15739,7 +15856,7 @@
     </row>
     <row r="51" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B51" s="94"/>
       <c r="C51" s="95"/>
@@ -15862,7 +15979,7 @@
     <row r="57" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
       <c r="B57" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="52"/>
       <c r="D57" s="52"/>
@@ -15883,7 +16000,7 @@
     </row>
     <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="100" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B58" s="101"/>
       <c r="C58" s="102"/>
@@ -15905,7 +16022,7 @@
     </row>
     <row r="59" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="103" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B59" s="104"/>
       <c r="C59" s="105"/>
@@ -16028,7 +16145,7 @@
     <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
       <c r="B65" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
@@ -16049,7 +16166,7 @@
     </row>
     <row r="66" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="103" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B66" s="107"/>
       <c r="C66" s="109"/>
@@ -16172,7 +16289,7 @@
     <row r="72" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="52"/>
       <c r="D72" s="52"/>
@@ -16193,7 +16310,7 @@
     </row>
     <row r="73" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B73" s="109"/>
       <c r="C73" s="109"/>
@@ -16316,7 +16433,7 @@
     <row r="79" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
       <c r="B79" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C79" s="52"/>
       <c r="D79" s="52"/>
@@ -16337,7 +16454,7 @@
     </row>
     <row r="80" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B80" s="94"/>
       <c r="C80" s="109"/>
@@ -16460,7 +16577,7 @@
     <row r="86" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
       <c r="B86" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C86" s="52"/>
       <c r="D86" s="52"/>
@@ -16481,7 +16598,7 @@
     </row>
     <row r="87" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="103" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B87" s="109"/>
       <c r="C87" s="109"/>
@@ -16604,7 +16721,7 @@
     <row r="93" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
       <c r="B93" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C93" s="52"/>
       <c r="D93" s="52"/>
@@ -16625,7 +16742,7 @@
     </row>
     <row r="94" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="103" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B94" s="94"/>
       <c r="C94" s="109"/>
@@ -16748,7 +16865,7 @@
     <row r="100" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
       <c r="B100" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C100" s="52"/>
       <c r="D100" s="52"/>
@@ -16769,7 +16886,7 @@
     </row>
     <row r="101" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="103" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B101" s="94"/>
       <c r="C101" s="109"/>
@@ -16892,7 +17009,7 @@
     <row r="107" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="26"/>
       <c r="B107" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C107" s="52"/>
       <c r="D107" s="52"/>
@@ -16913,7 +17030,7 @@
     </row>
     <row r="108" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="103" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B108" s="109"/>
       <c r="C108" s="109"/>
@@ -17036,7 +17153,7 @@
     <row r="114" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="26"/>
       <c r="B114" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C114" s="52"/>
       <c r="D114" s="52"/>
@@ -17057,7 +17174,7 @@
     </row>
     <row r="115" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="103" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B115" s="109"/>
       <c r="C115" s="109"/>
@@ -17180,7 +17297,7 @@
     <row r="121" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="26"/>
       <c r="B121" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
@@ -17370,7 +17487,7 @@
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
@@ -17470,7 +17587,7 @@
     <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59"/>
       <c r="B11" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
@@ -17491,7 +17608,7 @@
     </row>
     <row r="12" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -17513,7 +17630,7 @@
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Vf3gMx2NH5mhuj-vEh9Q4z3csFyS-EnfoYs4FmxemYg/edit#heading=h.sdd9yfud2u18","Plano de Validação")</f>
@@ -17521,7 +17638,7 @@
       </c>
       <c r="C13" s="75"/>
       <c r="D13" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="75"/>
       <c r="F13" s="75"/>
@@ -17540,7 +17657,7 @@
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B14" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Vf3gMx2NH5mhuj-vEh9Q4z3csFyS-EnfoYs4FmxemYg/edit#","Plano de Validação")</f>
@@ -17548,7 +17665,7 @@
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
@@ -17628,7 +17745,7 @@
     <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
       <c r="B18" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -17649,7 +17766,7 @@
     </row>
     <row r="19" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -17671,7 +17788,7 @@
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B20" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Vf3gMx2NH5mhuj-vEh9Q4z3csFyS-EnfoYs4FmxemYg/edit#heading=h.6e757vb4k8jg","Plano de Validação")</f>
@@ -17679,7 +17796,7 @@
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
@@ -17698,7 +17815,7 @@
     </row>
     <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="79" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B21" s="34" t="str">
         <f t="shared" ref="B21:B22" si="0">HYPERLINK("https://docs.google.com/document/d/1Vf3gMx2NH5mhuj-vEh9Q4z3csFyS-EnfoYs4FmxemYg/edit#heading=h.t05ndpzcqokf","Plano de Validação")</f>
@@ -17706,7 +17823,7 @@
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
@@ -17725,7 +17842,7 @@
     </row>
     <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="79" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B22" s="34" t="str">
         <f t="shared" si="0"/>
@@ -17733,7 +17850,7 @@
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
@@ -17793,7 +17910,7 @@
     <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="59"/>
       <c r="B25" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
@@ -17814,7 +17931,7 @@
     </row>
     <row r="26" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -17836,14 +17953,14 @@
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="75"/>
       <c r="F27" s="75"/>
@@ -17862,7 +17979,7 @@
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B28" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbbm9oR2xiZk1TcG8&amp;authuser=0","Aceitação dos Testes")</f>
@@ -17870,7 +17987,7 @@
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="75"/>
       <c r="F28" s="75"/>
@@ -17889,14 +18006,14 @@
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B29" s="86" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="75"/>
       <c r="F29" s="75"/>
@@ -17915,7 +18032,7 @@
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B30" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbYm91TzMyTzZmVUU&amp;authuser=0","Validação dos Requisitos")</f>
@@ -17923,7 +18040,7 @@
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="75"/>
       <c r="F30" s="75"/>
@@ -17942,7 +18059,7 @@
     </row>
     <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B31" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbX0xnd25OejY5b3M&amp;authuser=0","Checklist Casos de Teste")</f>
@@ -17950,7 +18067,7 @@
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="75"/>
       <c r="F31" s="75"/>
@@ -17969,7 +18086,7 @@
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B32" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbQmFjSzlfeWNIdGM&amp;authuser=0","Checklist Implantação")</f>
@@ -17977,7 +18094,7 @@
       </c>
       <c r="C32" s="96"/>
       <c r="D32" s="97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="96"/>
       <c r="F32" s="96"/>
@@ -18017,7 +18134,7 @@
     <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="59"/>
       <c r="B34" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="65"/>
@@ -18038,7 +18155,7 @@
     </row>
     <row r="35" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -18060,12 +18177,12 @@
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B36" s="51"/>
       <c r="C36" s="75"/>
       <c r="D36" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="75"/>
       <c r="F36" s="75"/>
@@ -18084,14 +18201,14 @@
     </row>
     <row r="37" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C37" s="75"/>
       <c r="D37" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="75"/>
       <c r="F37" s="75"/>
@@ -18151,7 +18268,7 @@
     <row r="40" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="59"/>
       <c r="B40" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
@@ -18172,7 +18289,7 @@
     </row>
     <row r="41" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -18194,7 +18311,7 @@
     </row>
     <row r="42" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B42" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbYm91TzMyTzZmVUU&amp;authuser=0","Validação dos Requisitos")</f>
@@ -18202,7 +18319,7 @@
       </c>
       <c r="C42" s="75"/>
       <c r="D42" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="75"/>
       <c r="F42" s="75"/>
@@ -18221,7 +18338,7 @@
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B43" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbX0xnd25OejY5b3M&amp;authuser=0","Checklist Casos de Teste")</f>
@@ -18229,7 +18346,7 @@
       </c>
       <c r="C43" s="75"/>
       <c r="D43" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="75"/>
       <c r="F43" s="75"/>
@@ -18248,7 +18365,7 @@
     </row>
     <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B44" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbQmFjSzlfeWNIdGM&amp;authuser=0","Checklist Implantação")</f>
@@ -18256,7 +18373,7 @@
       </c>
       <c r="C44" s="75"/>
       <c r="D44" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" s="75"/>
       <c r="F44" s="75"/>
@@ -18275,7 +18392,7 @@
     </row>
     <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B45" s="34" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=0B3cxqBxRTkNbbm9oR2xiZk1TcG8&amp;authuser=0","Aceitação dos Testes")</f>
@@ -18283,7 +18400,7 @@
       </c>
       <c r="C45" s="75"/>
       <c r="D45" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="75"/>
       <c r="F45" s="75"/>
@@ -18302,14 +18419,14 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B46" s="86" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C46" s="75"/>
       <c r="D46" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="75"/>
       <c r="F46" s="75"/>
@@ -18328,7 +18445,7 @@
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B47" s="34" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1Vf3gMx2NH5mhuj-vEh9Q4z3csFyS-EnfoYs4FmxemYg/edit#heading=h.6e757vb4k8jg","Plano de Validação ")</f>
@@ -18394,7 +18511,7 @@
     <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="59"/>
       <c r="B50" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="65"/>
       <c r="D50" s="65"/>
@@ -18415,7 +18532,7 @@
     </row>
     <row r="51" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -18437,7 +18554,7 @@
     </row>
     <row r="52" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B52" s="108" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1hF88INjOUK9nc_hDMHNmjdcFzV9SOBMnhwr9e0JHNaU/edit","Declaração de Aceitação e Uso")</f>
@@ -18445,7 +18562,7 @@
       </c>
       <c r="C52" s="75"/>
       <c r="D52" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E52" s="75"/>
       <c r="F52" s="75"/>
@@ -18525,7 +18642,7 @@
     <row r="56" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="59"/>
       <c r="B56" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
@@ -18566,7 +18683,7 @@
     </row>
     <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B58" s="80"/>
       <c r="C58" s="80"/>
@@ -18610,7 +18727,7 @@
     </row>
     <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B60" s="89"/>
       <c r="C60" s="90"/>
@@ -18632,7 +18749,7 @@
     </row>
     <row r="61" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B61" s="94"/>
       <c r="C61" s="95"/>
@@ -18755,7 +18872,7 @@
     <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
       <c r="B67" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="52"/>
       <c r="D67" s="52"/>
@@ -18776,7 +18893,7 @@
     </row>
     <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="100" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B68" s="101"/>
       <c r="C68" s="102"/>
@@ -18798,7 +18915,7 @@
     </row>
     <row r="69" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="103" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B69" s="104"/>
       <c r="C69" s="105"/>
@@ -18921,7 +19038,7 @@
     <row r="75" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
       <c r="B75" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="52"/>
       <c r="D75" s="52"/>
@@ -18942,7 +19059,7 @@
     </row>
     <row r="76" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="103" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B76" s="107"/>
       <c r="C76" s="109"/>
@@ -19065,7 +19182,7 @@
     <row r="82" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
       <c r="B82" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C82" s="52"/>
       <c r="D82" s="52"/>
@@ -19086,7 +19203,7 @@
     </row>
     <row r="83" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B83" s="109"/>
       <c r="C83" s="109"/>
@@ -19209,7 +19326,7 @@
     <row r="89" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
       <c r="B89" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C89" s="52"/>
       <c r="D89" s="52"/>
@@ -19230,7 +19347,7 @@
     </row>
     <row r="90" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B90" s="94"/>
       <c r="C90" s="109"/>
@@ -19353,7 +19470,7 @@
     <row r="96" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="26"/>
       <c r="B96" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C96" s="52"/>
       <c r="D96" s="52"/>
@@ -19374,7 +19491,7 @@
     </row>
     <row r="97" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="103" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B97" s="109"/>
       <c r="C97" s="109"/>
@@ -19497,7 +19614,7 @@
     <row r="103" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="26"/>
       <c r="B103" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C103" s="52"/>
       <c r="D103" s="52"/>
@@ -19518,7 +19635,7 @@
     </row>
     <row r="104" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="103" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B104" s="94"/>
       <c r="C104" s="109"/>
@@ -19641,7 +19758,7 @@
     <row r="110" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="26"/>
       <c r="B110" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C110" s="52"/>
       <c r="D110" s="52"/>
@@ -19662,7 +19779,7 @@
     </row>
     <row r="111" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="103" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B111" s="94"/>
       <c r="C111" s="109"/>
@@ -19785,7 +19902,7 @@
     <row r="117" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="26"/>
       <c r="B117" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="52"/>
@@ -19806,7 +19923,7 @@
     </row>
     <row r="118" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="103" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B118" s="109"/>
       <c r="C118" s="109"/>
@@ -19929,7 +20046,7 @@
     <row r="124" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="26"/>
       <c r="B124" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C124" s="52"/>
       <c r="D124" s="52"/>
@@ -19950,7 +20067,7 @@
     </row>
     <row r="125" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="103" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B125" s="109"/>
       <c r="C125" s="109"/>
@@ -20073,7 +20190,7 @@
     <row r="131" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="26"/>
       <c r="B131" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C131" s="52"/>
       <c r="D131" s="52"/>

--- a/Documentos/G5-PLA-Planilha de Avaliação QSW-2015-1.xlsx
+++ b/Documentos/G5-PLA-Planilha de Avaliação QSW-2015-1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3DB-felipe\Documents\GitHub\QualidadeSoftware2015\Documentos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções para preenchimento" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <sheet name="VER" sheetId="5" r:id="rId5"/>
     <sheet name="VAL" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="211">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -717,6 +712,12 @@
   </si>
   <si>
     <t>Aprovação Proceso</t>
+  </si>
+  <si>
+    <t>G5-GQA-CheckListdeAtividades</t>
+  </si>
+  <si>
+    <t>G5-GQA-Plano de Garantia da Qualidade</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1620,9 +1621,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1961,7 +1965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2189,7 +2193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R330"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241:D241"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9267,8 +9273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12469,8 +12475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12714,10 +12720,16 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>119</v>
+      </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="110" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="33"/>
@@ -12850,10 +12862,16 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>119</v>
+      </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="D16" s="110" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -13390,10 +13408,16 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>119</v>
+      </c>
       <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="D40" s="110" t="s">
+        <v>25</v>
+      </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
@@ -13410,10 +13434,16 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="D41" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
@@ -13430,10 +13460,16 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>119</v>
+      </c>
       <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="D42" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
@@ -13450,10 +13486,16 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="D43" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
@@ -13556,10 +13598,16 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="D48" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
@@ -13576,10 +13624,16 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="D49" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
@@ -13596,10 +13650,16 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="75" t="s">
+        <v>119</v>
+      </c>
       <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
+      <c r="D50" s="110" t="s">
+        <v>25</v>
+      </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
@@ -15132,6 +15192,15 @@
     <hyperlink ref="D25" r:id="rId11"/>
     <hyperlink ref="D29" r:id="rId12"/>
     <hyperlink ref="D30" r:id="rId13"/>
+    <hyperlink ref="D10" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D40" r:id="rId16"/>
+    <hyperlink ref="D41" r:id="rId17"/>
+    <hyperlink ref="D42" r:id="rId18"/>
+    <hyperlink ref="D48" r:id="rId19"/>
+    <hyperlink ref="D49" r:id="rId20"/>
+    <hyperlink ref="D43" r:id="rId21"/>
+    <hyperlink ref="D50" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Documentos/G5-PLA-Planilha de Avaliação QSW-2015-1.xlsx
+++ b/Documentos/G5-PLA-Planilha de Avaliação QSW-2015-1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="252">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -629,12 +629,6 @@
     <t>Repositório no GitHub</t>
   </si>
   <si>
-    <t>Processo de Validação - seção 6</t>
-  </si>
-  <si>
-    <t>Processo de Validação</t>
-  </si>
-  <si>
     <t>Checklist Requisitos - V1</t>
   </si>
   <si>
@@ -644,39 +638,18 @@
     <t>Repositório GitHub (para a visualização)</t>
   </si>
   <si>
-    <t>Processo de Validação - Seção 3</t>
-  </si>
-  <si>
-    <t>Processo de Validação - Seção 5</t>
-  </si>
-  <si>
     <t>Checklist de Testes</t>
   </si>
   <si>
-    <t>Processo de Validação - Seção 4</t>
-  </si>
-  <si>
-    <t>Processo de Validação - Seção 4 e 6</t>
-  </si>
-  <si>
     <t>Gerência de Configuração - Seção 10</t>
   </si>
   <si>
     <t>Checklist de Teste</t>
   </si>
   <si>
-    <t>Processo de Validação - Seção 6</t>
-  </si>
-  <si>
     <t>Plano de Recursos - Seção 3.5.1.4</t>
   </si>
   <si>
-    <t>Processo de validação</t>
-  </si>
-  <si>
-    <t>Processo de validação - Seção 4</t>
-  </si>
-  <si>
     <t>Plano de recursos</t>
   </si>
   <si>
@@ -689,15 +662,6 @@
     <t>Processo de Verificação</t>
   </si>
   <si>
-    <t>Processo de Verificação - Seção 3</t>
-  </si>
-  <si>
-    <t>Processo de Verificação - Seção 5</t>
-  </si>
-  <si>
-    <t>Processo de Verificação - Seção 4 e 6</t>
-  </si>
-  <si>
     <t>Processo de verificação - Seção 4</t>
   </si>
   <si>
@@ -879,13 +843,16 @@
   </si>
   <si>
     <t>Processo de gerência de requisitos</t>
+  </si>
+  <si>
+    <t>Gerencia de configuração - Seção 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1049,11 +1016,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1099,7 +1061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1573,27 +1535,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1951,15 +1898,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2645,7 +2585,7 @@
     <col min="1" max="1" width="106.5703125"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625"/>
-    <col min="4" max="4" width="8.85546875" style="126"/>
+    <col min="4" max="4" width="8.85546875" style="125"/>
     <col min="5" max="7" width="9"/>
     <col min="8" max="8" width="5.42578125"/>
     <col min="19" max="1025" width="17.28515625"/>
@@ -2777,13 +2717,13 @@
     </row>
     <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C6" s="23"/>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="23"/>
@@ -2927,13 +2867,13 @@
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="23"/>
@@ -3057,13 +2997,13 @@
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="23"/>
@@ -3213,7 +3153,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="23"/>
-      <c r="D26" s="129" t="s">
+      <c r="D26" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="23"/>
@@ -3503,7 +3443,7 @@
     </row>
     <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>27</v>
@@ -3535,7 +3475,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="23"/>
-      <c r="D41" s="129" t="s">
+      <c r="D41" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="23"/>
@@ -3561,7 +3501,7 @@
         <v>50</v>
       </c>
       <c r="C42" s="23"/>
-      <c r="D42" s="130" t="s">
+      <c r="D42" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="23"/>
@@ -3581,13 +3521,13 @@
     </row>
     <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="130" t="s">
+      <c r="D43" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="23"/>
@@ -3677,7 +3617,7 @@
         <v>34</v>
       </c>
       <c r="C47" s="23"/>
-      <c r="D47" s="129" t="s">
+      <c r="D47" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="23"/>
@@ -3821,13 +3761,13 @@
     </row>
     <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="23"/>
-      <c r="D54" s="129" t="s">
+      <c r="D54" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="23"/>
@@ -3847,13 +3787,13 @@
     </row>
     <row r="55" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="23"/>
-      <c r="D55" s="129" t="s">
+      <c r="D55" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="23"/>
@@ -3873,13 +3813,13 @@
     </row>
     <row r="56" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C56" s="23"/>
-      <c r="D56" s="129" t="s">
+      <c r="D56" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="23"/>
@@ -3983,7 +3923,7 @@
     </row>
     <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B61" s="30" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1xcnfnlQJcti0T2F2H-VN_7gJBps9YX5AYQqvNxGs5to&amp;authuser=0","Recursos")</f>
@@ -4280,13 +4220,13 @@
     </row>
     <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C75" s="23"/>
-      <c r="D75" s="130" t="s">
+      <c r="D75" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E75" s="23"/>
@@ -4416,7 +4356,7 @@
         <v>42</v>
       </c>
       <c r="C81" s="23"/>
-      <c r="D81" s="129" t="s">
+      <c r="D81" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E81" s="23"/>
@@ -4566,7 +4506,7 @@
         <v>47</v>
       </c>
       <c r="C88" s="23"/>
-      <c r="D88" s="129" t="s">
+      <c r="D88" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E88" s="23"/>
@@ -4710,13 +4650,13 @@
     </row>
     <row r="95" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B95" s="74" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C95" s="23"/>
-      <c r="D95" s="129" t="s">
+      <c r="D95" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="23"/>
@@ -4736,7 +4676,7 @@
     </row>
     <row r="96" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -4862,13 +4802,13 @@
     </row>
     <row r="102" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B102" s="74" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C102" s="23"/>
-      <c r="D102" s="129" t="s">
+      <c r="D102" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E102" s="23"/>
@@ -4894,7 +4834,7 @@
         <v>50</v>
       </c>
       <c r="C103" s="23"/>
-      <c r="D103" s="129" t="s">
+      <c r="D103" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E103" s="23"/>
@@ -4914,13 +4854,13 @@
     </row>
     <row r="104" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="22" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B104" s="74" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C104" s="23"/>
-      <c r="D104" s="129" t="s">
+      <c r="D104" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E104" s="23"/>
@@ -4940,13 +4880,13 @@
     </row>
     <row r="105" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="22" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B105" s="74" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C105" s="23"/>
-      <c r="D105" s="129" t="s">
+      <c r="D105" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E105" s="23"/>
@@ -5030,13 +4970,13 @@
     </row>
     <row r="109" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="22" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C109" s="23"/>
-      <c r="D109" s="129" t="s">
+      <c r="D109" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E109" s="23"/>
@@ -5062,7 +5002,7 @@
         <v>50</v>
       </c>
       <c r="C110" s="23"/>
-      <c r="D110" s="130" t="s">
+      <c r="D110" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E110" s="23"/>
@@ -5088,7 +5028,7 @@
         <v>37</v>
       </c>
       <c r="C111" s="23"/>
-      <c r="D111" s="130" t="s">
+      <c r="D111" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E111" s="23"/>
@@ -5114,7 +5054,7 @@
         <v>72</v>
       </c>
       <c r="C112" s="23"/>
-      <c r="D112" s="130" t="s">
+      <c r="D112" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E112" s="23"/>
@@ -5134,7 +5074,7 @@
     </row>
     <row r="113" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="63" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -5206,7 +5146,7 @@
         <v>34</v>
       </c>
       <c r="C116" s="23"/>
-      <c r="D116" s="129" t="s">
+      <c r="D116" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E116" s="23"/>
@@ -5226,7 +5166,7 @@
     </row>
     <row r="117" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="63" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
@@ -5352,13 +5292,13 @@
     </row>
     <row r="123" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="22" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C123" s="23"/>
-      <c r="D123" s="129" t="s">
+      <c r="D123" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E123" s="23"/>
@@ -5384,7 +5324,7 @@
         <v>50</v>
       </c>
       <c r="C124" s="23"/>
-      <c r="D124" s="130" t="s">
+      <c r="D124" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E124" s="23"/>
@@ -5410,7 +5350,7 @@
         <v>72</v>
       </c>
       <c r="C125" s="23"/>
-      <c r="D125" s="130" t="s">
+      <c r="D125" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E125" s="23"/>
@@ -5514,13 +5454,13 @@
     </row>
     <row r="130" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B130" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C130" s="23"/>
-      <c r="D130" s="129" t="s">
+      <c r="D130" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E130" s="23"/>
@@ -5546,7 +5486,7 @@
         <v>50</v>
       </c>
       <c r="C131" s="23"/>
-      <c r="D131" s="129" t="s">
+      <c r="D131" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E131" s="23"/>
@@ -5566,7 +5506,7 @@
     </row>
     <row r="132" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="63" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -5698,7 +5638,7 @@
         <v>71</v>
       </c>
       <c r="C138" s="23"/>
-      <c r="D138" s="129" t="s">
+      <c r="D138" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E138" s="23"/>
@@ -5848,7 +5788,7 @@
         <v>34</v>
       </c>
       <c r="C145" s="23"/>
-      <c r="D145" s="129" t="s">
+      <c r="D145" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E145" s="23"/>
@@ -5868,13 +5808,13 @@
     </row>
     <row r="146" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B146" s="74" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C146" s="23"/>
-      <c r="D146" s="130" t="s">
+      <c r="D146" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E146" s="23"/>
@@ -7842,11 +7782,11 @@
     </row>
     <row r="239" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="22" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B239" s="23"/>
       <c r="C239" s="23"/>
-      <c r="D239" s="129" t="s">
+      <c r="D239" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E239" s="23"/>
@@ -7994,7 +7934,7 @@
       </c>
       <c r="B246" s="22"/>
       <c r="C246" s="23"/>
-      <c r="D246" s="130" t="s">
+      <c r="D246" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E246" s="23"/>
@@ -8138,11 +8078,11 @@
     </row>
     <row r="253" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="22" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B253" s="23"/>
       <c r="C253" s="23"/>
-      <c r="D253" s="130" t="s">
+      <c r="D253" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E253" s="23"/>
@@ -8162,11 +8102,11 @@
     </row>
     <row r="254" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="22" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B254" s="23"/>
       <c r="C254" s="23"/>
-      <c r="D254" s="130" t="s">
+      <c r="D254" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E254" s="23"/>
@@ -8438,7 +8378,7 @@
       </c>
       <c r="B267" s="23"/>
       <c r="C267" s="23"/>
-      <c r="D267" s="130" t="s">
+      <c r="D267" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E267" s="23"/>
@@ -8582,11 +8522,11 @@
     </row>
     <row r="274" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="22" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B274" s="23"/>
       <c r="C274" s="23"/>
-      <c r="D274" s="130" t="s">
+      <c r="D274" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E274" s="23"/>
@@ -8874,11 +8814,11 @@
     </row>
     <row r="288" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B288" s="23"/>
       <c r="C288" s="23"/>
-      <c r="D288" s="130" t="s">
+      <c r="D288" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E288" s="23"/>
@@ -8898,11 +8838,11 @@
     </row>
     <row r="289" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="22" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B289" s="23"/>
       <c r="C289" s="23"/>
-      <c r="D289" s="130" t="s">
+      <c r="D289" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E289" s="23"/>
@@ -9026,11 +8966,11 @@
     </row>
     <row r="295" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="22" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B295" s="23"/>
       <c r="C295" s="23"/>
-      <c r="D295" s="130" t="s">
+      <c r="D295" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E295" s="23"/>
@@ -9174,13 +9114,13 @@
     </row>
     <row r="302" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="22" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C302" s="23"/>
-      <c r="D302" s="130" t="s">
+      <c r="D302" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E302" s="23"/>
@@ -9468,11 +9408,11 @@
     </row>
     <row r="316" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="22" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B316" s="23"/>
       <c r="C316" s="23"/>
-      <c r="D316" s="130" t="s">
+      <c r="D316" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E316" s="23"/>
@@ -9492,11 +9432,11 @@
     </row>
     <row r="317" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="22" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B317" s="23"/>
       <c r="C317" s="23"/>
-      <c r="D317" s="130" t="s">
+      <c r="D317" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E317" s="23"/>
@@ -9516,11 +9456,11 @@
     </row>
     <row r="318" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="22" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B318" s="23"/>
       <c r="C318" s="23"/>
-      <c r="D318" s="130" t="s">
+      <c r="D318" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E318" s="23"/>
@@ -9544,7 +9484,7 @@
       </c>
       <c r="B319" s="23"/>
       <c r="C319" s="23"/>
-      <c r="D319" s="130" t="s">
+      <c r="D319" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E319" s="23"/>
@@ -9568,7 +9508,7 @@
       </c>
       <c r="B320" s="23"/>
       <c r="C320" s="23"/>
-      <c r="D320" s="130" t="s">
+      <c r="D320" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E320" s="23"/>
@@ -9588,11 +9528,11 @@
     </row>
     <row r="321" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="22" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B321" s="23"/>
       <c r="C321" s="23"/>
-      <c r="D321" s="130" t="s">
+      <c r="D321" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E321" s="23"/>
@@ -9616,7 +9556,7 @@
       </c>
       <c r="B322" s="23"/>
       <c r="C322" s="23"/>
-      <c r="D322" s="130" t="s">
+      <c r="D322" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E322" s="23"/>
@@ -9640,7 +9580,7 @@
       </c>
       <c r="B323" s="23"/>
       <c r="C323" s="23"/>
-      <c r="D323" s="130" t="s">
+      <c r="D323" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E323" s="23"/>
@@ -9936,16 +9876,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="106.42578125"/>
     <col min="2" max="2" width="34.28515625"/>
     <col min="3" max="3" width="5.140625"/>
-    <col min="4" max="4" width="9" style="126"/>
+    <col min="4" max="4" width="9" style="125"/>
     <col min="5" max="7" width="9"/>
     <col min="8" max="8" width="5.42578125"/>
     <col min="9" max="18" width="11.42578125"/>
@@ -9958,7 +9896,7 @@
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
-      <c r="D1" s="147"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -9980,7 +9918,7 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="148"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -10006,7 +9944,7 @@
       <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="146" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -10038,7 +9976,7 @@
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
-      <c r="D4" s="161"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
@@ -10060,7 +9998,7 @@
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="61"/>
-      <c r="D5" s="162"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
@@ -10084,7 +10022,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="23"/>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="23"/>
@@ -10110,7 +10048,7 @@
         <v>93</v>
       </c>
       <c r="C7" s="23"/>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="23"/>
@@ -10133,10 +10071,10 @@
         <v>94</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="23"/>
@@ -10158,7 +10096,7 @@
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="151"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -10178,7 +10116,7 @@
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="151"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -10200,7 +10138,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="152"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="28"/>
@@ -10222,7 +10160,7 @@
       </c>
       <c r="B12" s="59"/>
       <c r="C12" s="61"/>
-      <c r="D12" s="162"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="61"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
@@ -10246,7 +10184,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="23"/>
@@ -10272,7 +10210,7 @@
         <v>99</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="129" t="s">
+      <c r="D14" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="23"/>
@@ -10294,7 +10232,7 @@
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="151"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
@@ -10314,7 +10252,7 @@
       <c r="A16" s="22"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="151"/>
+      <c r="D16" s="148"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -10334,7 +10272,7 @@
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="151"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -10356,7 +10294,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="152"/>
+      <c r="D18" s="149"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="28"/>
@@ -10378,7 +10316,7 @@
       </c>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
-      <c r="D19" s="162"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="61"/>
       <c r="F19" s="61"/>
       <c r="G19" s="61"/>
@@ -10402,7 +10340,7 @@
         <v>102</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="23"/>
@@ -10424,7 +10362,7 @@
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="151"/>
+      <c r="D21" s="148"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -10444,7 +10382,7 @@
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="151"/>
+      <c r="D22" s="148"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -10464,7 +10402,7 @@
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="151"/>
+      <c r="D23" s="148"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -10484,7 +10422,7 @@
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="151"/>
+      <c r="D24" s="148"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
@@ -10506,7 +10444,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="27"/>
-      <c r="D25" s="152"/>
+      <c r="D25" s="149"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="28"/>
@@ -10528,7 +10466,7 @@
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="162"/>
+      <c r="D26" s="159"/>
       <c r="E26" s="61"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
@@ -10552,7 +10490,7 @@
         <v>99</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="23"/>
@@ -10576,7 +10514,7 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="151"/>
+      <c r="D28" s="148"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -10596,7 +10534,7 @@
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="151"/>
+      <c r="D29" s="148"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -10616,7 +10554,7 @@
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="151"/>
+      <c r="D30" s="148"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
@@ -10636,7 +10574,7 @@
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="151"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
@@ -10658,7 +10596,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="27"/>
-      <c r="D32" s="152"/>
+      <c r="D32" s="149"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="28"/>
@@ -10680,7 +10618,7 @@
       </c>
       <c r="B33" s="61"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="162"/>
+      <c r="D33" s="159"/>
       <c r="E33" s="61"/>
       <c r="F33" s="61"/>
       <c r="G33" s="61"/>
@@ -10704,7 +10642,7 @@
         <v>108</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="129" t="s">
+      <c r="D34" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="23"/>
@@ -10730,7 +10668,7 @@
         <v>110</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="129" t="s">
+      <c r="D35" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="23"/>
@@ -10754,7 +10692,7 @@
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="151"/>
+      <c r="D36" s="148"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
@@ -10774,7 +10712,7 @@
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="151"/>
+      <c r="D37" s="148"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
@@ -10794,7 +10732,7 @@
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="151"/>
+      <c r="D38" s="148"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
@@ -10816,7 +10754,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="66"/>
-      <c r="D39" s="163"/>
+      <c r="D39" s="160"/>
       <c r="E39" s="66"/>
       <c r="F39" s="66"/>
       <c r="G39" s="67"/>
@@ -10836,7 +10774,7 @@
       <c r="A40" s="34"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
-      <c r="D40" s="153"/>
+      <c r="D40" s="150"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
@@ -10858,7 +10796,7 @@
       </c>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
-      <c r="D41" s="154"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
       <c r="G41" s="37"/>
@@ -10880,7 +10818,7 @@
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
-      <c r="D42" s="155"/>
+      <c r="D42" s="152"/>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
@@ -10902,7 +10840,7 @@
       </c>
       <c r="B43" s="42"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="156"/>
+      <c r="D43" s="153"/>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
       <c r="G43" s="44"/>
@@ -10924,7 +10862,7 @@
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="47"/>
-      <c r="D44" s="157"/>
+      <c r="D44" s="154"/>
       <c r="E44" s="47"/>
       <c r="F44" s="47"/>
       <c r="G44" s="48"/>
@@ -10941,14 +10879,14 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="135" t="s">
-        <v>248</v>
-      </c>
-      <c r="B45" s="136" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" s="136"/>
-      <c r="D45" s="164" t="s">
+      <c r="A45" s="132" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="133" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="133"/>
+      <c r="D45" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="23"/>
@@ -10967,14 +10905,14 @@
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="135" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" s="136" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" s="136"/>
-      <c r="D46" s="164" t="s">
+      <c r="A46" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="133" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" s="133"/>
+      <c r="D46" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="23"/>
@@ -10993,14 +10931,14 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="135" t="s">
-        <v>251</v>
-      </c>
-      <c r="B47" s="136" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" s="136"/>
-      <c r="D47" s="164" t="s">
+      <c r="A47" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="133"/>
+      <c r="D47" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="23"/>
@@ -11019,14 +10957,14 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="135" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48" s="136" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="136"/>
-      <c r="D48" s="164" t="s">
+      <c r="A48" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="133" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="133"/>
+      <c r="D48" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="23"/>
@@ -11045,14 +10983,14 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="135" t="s">
-        <v>254</v>
-      </c>
-      <c r="B49" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="136"/>
-      <c r="D49" s="164" t="s">
+      <c r="A49" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="133" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="133"/>
+      <c r="D49" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="23"/>
@@ -11071,14 +11009,14 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="135" t="s">
+      <c r="A50" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="136" t="s">
+      <c r="B50" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="136"/>
-      <c r="D50" s="164" t="s">
+      <c r="C50" s="133"/>
+      <c r="D50" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="23"/>
@@ -11097,14 +11035,14 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="135" t="s">
+      <c r="A51" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="136" t="s">
-        <v>249</v>
-      </c>
-      <c r="C51" s="136"/>
-      <c r="D51" s="164" t="s">
+      <c r="B51" s="133" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="133"/>
+      <c r="D51" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E51" s="23"/>
@@ -11126,7 +11064,7 @@
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
-      <c r="D52" s="151"/>
+      <c r="D52" s="148"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
@@ -11148,7 +11086,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="27"/>
-      <c r="D53" s="152"/>
+      <c r="D53" s="149"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="28"/>
@@ -11170,7 +11108,7 @@
       </c>
       <c r="B54" s="50"/>
       <c r="C54" s="51"/>
-      <c r="D54" s="158"/>
+      <c r="D54" s="155"/>
       <c r="E54" s="51"/>
       <c r="F54" s="51"/>
       <c r="G54" s="48"/>
@@ -11192,7 +11130,7 @@
       </c>
       <c r="B55" s="53"/>
       <c r="C55" s="54"/>
-      <c r="D55" s="159"/>
+      <c r="D55" s="156"/>
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
       <c r="G55" s="48"/>
@@ -11209,14 +11147,14 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="137" t="s">
-        <v>256</v>
-      </c>
-      <c r="B56" s="138" t="s">
+      <c r="A56" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="138"/>
-      <c r="D56" s="164" t="s">
+      <c r="C56" s="135"/>
+      <c r="D56" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="23"/>
@@ -11235,14 +11173,14 @@
       <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="B57" s="138" t="s">
-        <v>255</v>
-      </c>
-      <c r="C57" s="138"/>
-      <c r="D57" s="164" t="s">
+      <c r="A57" s="134" t="s">
+        <v>245</v>
+      </c>
+      <c r="B57" s="135" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="135"/>
+      <c r="D57" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="23"/>
@@ -11264,7 +11202,7 @@
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
-      <c r="D58" s="151"/>
+      <c r="D58" s="148"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
@@ -11284,7 +11222,7 @@
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
-      <c r="D59" s="151"/>
+      <c r="D59" s="148"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
@@ -11304,7 +11242,7 @@
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
-      <c r="D60" s="151"/>
+      <c r="D60" s="148"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
@@ -11326,7 +11264,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="27"/>
-      <c r="D61" s="152"/>
+      <c r="D61" s="149"/>
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
       <c r="G61" s="28"/>
@@ -11348,7 +11286,7 @@
       </c>
       <c r="B62" s="55"/>
       <c r="C62" s="56"/>
-      <c r="D62" s="160"/>
+      <c r="D62" s="157"/>
       <c r="E62" s="56"/>
       <c r="F62" s="56"/>
       <c r="G62" s="48"/>
@@ -11366,11 +11304,11 @@
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="164" t="s">
+      <c r="D63" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="23"/>
@@ -11392,7 +11330,7 @@
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
-      <c r="D64" s="151"/>
+      <c r="D64" s="148"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
@@ -11412,7 +11350,7 @@
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
-      <c r="D65" s="151"/>
+      <c r="D65" s="148"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
@@ -11432,7 +11370,7 @@
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
-      <c r="D66" s="151"/>
+      <c r="D66" s="148"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
@@ -11452,7 +11390,7 @@
       <c r="A67" s="22"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
-      <c r="D67" s="151"/>
+      <c r="D67" s="148"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
@@ -11474,7 +11412,7 @@
         <v>24</v>
       </c>
       <c r="C68" s="27"/>
-      <c r="D68" s="152"/>
+      <c r="D68" s="149"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
       <c r="G68" s="28"/>
@@ -11496,7 +11434,7 @@
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
-      <c r="D69" s="160"/>
+      <c r="D69" s="157"/>
       <c r="E69" s="56"/>
       <c r="F69" s="56"/>
       <c r="G69" s="48"/>
@@ -11518,7 +11456,7 @@
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
-      <c r="D70" s="164" t="s">
+      <c r="D70" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E70" s="23"/>
@@ -11540,7 +11478,7 @@
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
-      <c r="D71" s="151"/>
+      <c r="D71" s="148"/>
       <c r="E71" s="23"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
@@ -11560,7 +11498,7 @@
       <c r="A72" s="22"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
-      <c r="D72" s="151"/>
+      <c r="D72" s="148"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
@@ -11580,7 +11518,7 @@
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
-      <c r="D73" s="151"/>
+      <c r="D73" s="148"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
@@ -11600,7 +11538,7 @@
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
-      <c r="D74" s="151"/>
+      <c r="D74" s="148"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
@@ -11622,7 +11560,7 @@
         <v>24</v>
       </c>
       <c r="C75" s="27"/>
-      <c r="D75" s="152"/>
+      <c r="D75" s="149"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27"/>
       <c r="G75" s="28"/>
@@ -11644,7 +11582,7 @@
       </c>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
-      <c r="D76" s="160"/>
+      <c r="D76" s="157"/>
       <c r="E76" s="56"/>
       <c r="F76" s="56"/>
       <c r="G76" s="48"/>
@@ -11664,7 +11602,7 @@
       <c r="A77" s="22"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
-      <c r="D77" s="151"/>
+      <c r="D77" s="148"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
@@ -11684,7 +11622,7 @@
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
-      <c r="D78" s="151"/>
+      <c r="D78" s="148"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
@@ -11704,7 +11642,7 @@
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
-      <c r="D79" s="151"/>
+      <c r="D79" s="148"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
@@ -11724,7 +11662,7 @@
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
-      <c r="D80" s="151"/>
+      <c r="D80" s="148"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
@@ -11744,7 +11682,7 @@
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
-      <c r="D81" s="151"/>
+      <c r="D81" s="148"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
@@ -11766,7 +11704,7 @@
         <v>24</v>
       </c>
       <c r="C82" s="27"/>
-      <c r="D82" s="152"/>
+      <c r="D82" s="149"/>
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
       <c r="G82" s="28"/>
@@ -11788,7 +11726,7 @@
       </c>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
-      <c r="D83" s="160"/>
+      <c r="D83" s="157"/>
       <c r="E83" s="56"/>
       <c r="F83" s="56"/>
       <c r="G83" s="48"/>
@@ -11805,12 +11743,12 @@
       <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="139" t="s">
-        <v>259</v>
-      </c>
-      <c r="B84" s="140"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="164" t="s">
+      <c r="A84" s="136" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" s="137"/>
+      <c r="C84" s="137"/>
+      <c r="D84" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E84" s="23"/>
@@ -11829,12 +11767,12 @@
       <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="139" t="s">
-        <v>260</v>
-      </c>
-      <c r="B85" s="140"/>
-      <c r="C85" s="140"/>
-      <c r="D85" s="164" t="s">
+      <c r="A85" s="136" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" s="137"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E85" s="23"/>
@@ -11853,12 +11791,12 @@
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="139" t="s">
+      <c r="A86" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="140"/>
-      <c r="C86" s="140"/>
-      <c r="D86" s="164" t="s">
+      <c r="B86" s="137"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E86" s="23"/>
@@ -11880,7 +11818,7 @@
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
-      <c r="D87" s="151"/>
+      <c r="D87" s="148"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
@@ -11900,7 +11838,7 @@
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
-      <c r="D88" s="151"/>
+      <c r="D88" s="148"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
@@ -11922,7 +11860,7 @@
         <v>24</v>
       </c>
       <c r="C89" s="27"/>
-      <c r="D89" s="152"/>
+      <c r="D89" s="149"/>
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" s="28"/>
@@ -11944,7 +11882,7 @@
       </c>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
-      <c r="D90" s="160"/>
+      <c r="D90" s="157"/>
       <c r="E90" s="56"/>
       <c r="F90" s="56"/>
       <c r="G90" s="48"/>
@@ -11961,12 +11899,12 @@
       <c r="R90" s="1"/>
     </row>
     <row r="91" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="141" t="s">
-        <v>248</v>
-      </c>
-      <c r="B91" s="142"/>
-      <c r="C91" s="142"/>
-      <c r="D91" s="164" t="s">
+      <c r="A91" s="138" t="s">
+        <v>236</v>
+      </c>
+      <c r="B91" s="139"/>
+      <c r="C91" s="139"/>
+      <c r="D91" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E91" s="23"/>
@@ -11988,7 +11926,7 @@
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
-      <c r="D92" s="151"/>
+      <c r="D92" s="148"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
@@ -12008,7 +11946,7 @@
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
-      <c r="D93" s="151"/>
+      <c r="D93" s="148"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
@@ -12028,7 +11966,7 @@
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
-      <c r="D94" s="151"/>
+      <c r="D94" s="148"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
@@ -12048,7 +11986,7 @@
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
-      <c r="D95" s="151"/>
+      <c r="D95" s="148"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
       <c r="G95" s="23"/>
@@ -12070,7 +12008,7 @@
         <v>24</v>
       </c>
       <c r="C96" s="27"/>
-      <c r="D96" s="152"/>
+      <c r="D96" s="149"/>
       <c r="E96" s="27"/>
       <c r="F96" s="27"/>
       <c r="G96" s="28"/>
@@ -12092,7 +12030,7 @@
       </c>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
-      <c r="D97" s="160"/>
+      <c r="D97" s="157"/>
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
       <c r="G97" s="48"/>
@@ -12114,7 +12052,7 @@
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
-      <c r="D98" s="151"/>
+      <c r="D98" s="148"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
       <c r="G98" s="23"/>
@@ -12134,7 +12072,7 @@
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
-      <c r="D99" s="151"/>
+      <c r="D99" s="148"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
       <c r="G99" s="23"/>
@@ -12154,7 +12092,7 @@
       <c r="A100" s="22"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
-      <c r="D100" s="151"/>
+      <c r="D100" s="148"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
       <c r="G100" s="23"/>
@@ -12174,7 +12112,7 @@
       <c r="A101" s="22"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
-      <c r="D101" s="151"/>
+      <c r="D101" s="148"/>
       <c r="E101" s="23"/>
       <c r="F101" s="23"/>
       <c r="G101" s="23"/>
@@ -12194,7 +12132,7 @@
       <c r="A102" s="22"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
-      <c r="D102" s="151"/>
+      <c r="D102" s="148"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
@@ -12216,7 +12154,7 @@
         <v>24</v>
       </c>
       <c r="C103" s="27"/>
-      <c r="D103" s="152"/>
+      <c r="D103" s="149"/>
       <c r="E103" s="27"/>
       <c r="F103" s="27"/>
       <c r="G103" s="28"/>
@@ -12238,7 +12176,7 @@
       </c>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
-      <c r="D104" s="160"/>
+      <c r="D104" s="157"/>
       <c r="E104" s="56"/>
       <c r="F104" s="56"/>
       <c r="G104" s="48"/>
@@ -12255,12 +12193,12 @@
       <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="143" t="s">
+      <c r="A105" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="B105" s="144"/>
-      <c r="C105" s="144"/>
-      <c r="D105" s="164" t="s">
+      <c r="B105" s="141"/>
+      <c r="C105" s="141"/>
+      <c r="D105" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E105" s="23"/>
@@ -12282,7 +12220,7 @@
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
-      <c r="D106" s="151"/>
+      <c r="D106" s="148"/>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
       <c r="G106" s="23"/>
@@ -12302,7 +12240,7 @@
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
-      <c r="D107" s="151"/>
+      <c r="D107" s="148"/>
       <c r="E107" s="23"/>
       <c r="F107" s="23"/>
       <c r="G107" s="23"/>
@@ -12322,7 +12260,7 @@
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
-      <c r="D108" s="151"/>
+      <c r="D108" s="148"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
       <c r="G108" s="23"/>
@@ -12342,7 +12280,7 @@
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
-      <c r="D109" s="151"/>
+      <c r="D109" s="148"/>
       <c r="E109" s="23"/>
       <c r="F109" s="23"/>
       <c r="G109" s="23"/>
@@ -12364,7 +12302,7 @@
         <v>24</v>
       </c>
       <c r="C110" s="27"/>
-      <c r="D110" s="152"/>
+      <c r="D110" s="149"/>
       <c r="E110" s="27"/>
       <c r="F110" s="27"/>
       <c r="G110" s="28"/>
@@ -12386,7 +12324,7 @@
       </c>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
-      <c r="D111" s="160"/>
+      <c r="D111" s="157"/>
       <c r="E111" s="56"/>
       <c r="F111" s="56"/>
       <c r="G111" s="48"/>
@@ -12403,12 +12341,12 @@
       <c r="R111" s="1"/>
     </row>
     <row r="112" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="145" t="s">
-        <v>256</v>
-      </c>
-      <c r="B112" s="146"/>
-      <c r="C112" s="146"/>
-      <c r="D112" s="164" t="s">
+      <c r="A112" s="142" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" s="143"/>
+      <c r="C112" s="143"/>
+      <c r="D112" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E112" s="23"/>
@@ -12430,7 +12368,7 @@
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
-      <c r="D113" s="151"/>
+      <c r="D113" s="148"/>
       <c r="E113" s="23"/>
       <c r="F113" s="23"/>
       <c r="G113" s="23"/>
@@ -12450,7 +12388,7 @@
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
-      <c r="D114" s="151"/>
+      <c r="D114" s="148"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
@@ -12470,7 +12408,7 @@
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
-      <c r="D115" s="151"/>
+      <c r="D115" s="148"/>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="23"/>
@@ -12490,7 +12428,7 @@
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
-      <c r="D116" s="151"/>
+      <c r="D116" s="148"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
       <c r="G116" s="23"/>
@@ -12512,7 +12450,7 @@
         <v>24</v>
       </c>
       <c r="C117" s="27"/>
-      <c r="D117" s="152"/>
+      <c r="D117" s="149"/>
       <c r="E117" s="27"/>
       <c r="F117" s="27"/>
       <c r="G117" s="28"/>
@@ -12534,7 +12472,7 @@
       </c>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
-      <c r="D118" s="160"/>
+      <c r="D118" s="157"/>
       <c r="E118" s="56"/>
       <c r="F118" s="56"/>
       <c r="G118" s="48"/>
@@ -12551,12 +12489,12 @@
       <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="150" t="s">
-        <v>256</v>
-      </c>
-      <c r="B119" s="151"/>
-      <c r="C119" s="151"/>
-      <c r="D119" s="164" t="s">
+      <c r="A119" s="147" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" s="148"/>
+      <c r="C119" s="148"/>
+      <c r="D119" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E119" s="23"/>
@@ -12578,7 +12516,7 @@
       <c r="A120" s="22"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
-      <c r="D120" s="151"/>
+      <c r="D120" s="148"/>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
@@ -12598,7 +12536,7 @@
       <c r="A121" s="22"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
-      <c r="D121" s="151"/>
+      <c r="D121" s="148"/>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
@@ -12618,7 +12556,7 @@
       <c r="A122" s="22"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
-      <c r="D122" s="151"/>
+      <c r="D122" s="148"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
       <c r="G122" s="23"/>
@@ -12638,7 +12576,7 @@
       <c r="A123" s="22"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
-      <c r="D123" s="151"/>
+      <c r="D123" s="148"/>
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
       <c r="G123" s="23"/>
@@ -12660,7 +12598,7 @@
         <v>24</v>
       </c>
       <c r="C124" s="27"/>
-      <c r="D124" s="152"/>
+      <c r="D124" s="149"/>
       <c r="E124" s="27"/>
       <c r="F124" s="27"/>
       <c r="G124" s="28"/>
@@ -12682,7 +12620,7 @@
       </c>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
-      <c r="D125" s="160"/>
+      <c r="D125" s="157"/>
       <c r="E125" s="56"/>
       <c r="F125" s="56"/>
       <c r="G125" s="48"/>
@@ -12699,12 +12637,12 @@
       <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="150" t="s">
-        <v>261</v>
+      <c r="A126" s="147" t="s">
+        <v>249</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
-      <c r="D126" s="151"/>
+      <c r="D126" s="148"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
       <c r="G126" s="23"/>
@@ -12724,7 +12662,7 @@
       <c r="A127" s="22"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
-      <c r="D127" s="151"/>
+      <c r="D127" s="148"/>
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
       <c r="G127" s="23"/>
@@ -12744,7 +12682,7 @@
       <c r="A128" s="22"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
-      <c r="D128" s="151"/>
+      <c r="D128" s="148"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
       <c r="G128" s="23"/>
@@ -12764,7 +12702,7 @@
       <c r="A129" s="22"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
-      <c r="D129" s="151"/>
+      <c r="D129" s="148"/>
       <c r="E129" s="23"/>
       <c r="F129" s="23"/>
       <c r="G129" s="23"/>
@@ -12784,7 +12722,7 @@
       <c r="A130" s="22"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
-      <c r="D130" s="151"/>
+      <c r="D130" s="148"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
       <c r="G130" s="23"/>
@@ -12806,7 +12744,7 @@
         <v>24</v>
       </c>
       <c r="C131" s="27"/>
-      <c r="D131" s="152"/>
+      <c r="D131" s="149"/>
       <c r="E131" s="27"/>
       <c r="F131" s="27"/>
       <c r="G131" s="28"/>
@@ -12828,7 +12766,7 @@
       </c>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
-      <c r="D132" s="160"/>
+      <c r="D132" s="157"/>
       <c r="E132" s="56"/>
       <c r="F132" s="56"/>
       <c r="G132" s="48"/>
@@ -12845,12 +12783,12 @@
       <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="150" t="s">
-        <v>262</v>
+      <c r="A133" s="147" t="s">
+        <v>250</v>
       </c>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
-      <c r="D133" s="164" t="s">
+      <c r="D133" s="161" t="s">
         <v>23</v>
       </c>
       <c r="E133" s="23"/>
@@ -12872,7 +12810,7 @@
       <c r="A134" s="22"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
-      <c r="D134" s="151"/>
+      <c r="D134" s="148"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
       <c r="G134" s="23"/>
@@ -12892,7 +12830,7 @@
       <c r="A135" s="22"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
-      <c r="D135" s="151"/>
+      <c r="D135" s="148"/>
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
       <c r="G135" s="23"/>
@@ -12912,7 +12850,7 @@
       <c r="A136" s="22"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
-      <c r="D136" s="151"/>
+      <c r="D136" s="148"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
       <c r="G136" s="23"/>
@@ -12932,7 +12870,7 @@
       <c r="A137" s="22"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
-      <c r="D137" s="151"/>
+      <c r="D137" s="148"/>
       <c r="E137" s="23"/>
       <c r="F137" s="23"/>
       <c r="G137" s="23"/>
@@ -12954,7 +12892,7 @@
         <v>24</v>
       </c>
       <c r="C138" s="27"/>
-      <c r="D138" s="152"/>
+      <c r="D138" s="149"/>
       <c r="E138" s="27"/>
       <c r="F138" s="27"/>
       <c r="G138" s="28"/>
@@ -12976,7 +12914,7 @@
       </c>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
-      <c r="D139" s="160"/>
+      <c r="D139" s="157"/>
       <c r="E139" s="56"/>
       <c r="F139" s="56"/>
       <c r="G139" s="48"/>
@@ -12994,11 +12932,11 @@
     </row>
     <row r="140" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
-      <c r="D140" s="151"/>
+      <c r="D140" s="148"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
       <c r="G140" s="23"/>
@@ -13018,7 +12956,7 @@
       <c r="A141" s="22"/>
       <c r="B141" s="23"/>
       <c r="C141" s="23"/>
-      <c r="D141" s="151"/>
+      <c r="D141" s="148"/>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
       <c r="G141" s="23"/>
@@ -13038,7 +12976,7 @@
       <c r="A142" s="22"/>
       <c r="B142" s="23"/>
       <c r="C142" s="23"/>
-      <c r="D142" s="151"/>
+      <c r="D142" s="148"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
       <c r="G142" s="23"/>
@@ -13058,7 +12996,7 @@
       <c r="A143" s="22"/>
       <c r="B143" s="23"/>
       <c r="C143" s="23"/>
-      <c r="D143" s="151"/>
+      <c r="D143" s="148"/>
       <c r="E143" s="23"/>
       <c r="F143" s="23"/>
       <c r="G143" s="23"/>
@@ -13078,7 +13016,7 @@
       <c r="A144" s="22"/>
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
-      <c r="D144" s="151"/>
+      <c r="D144" s="148"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
       <c r="G144" s="23"/>
@@ -13100,7 +13038,7 @@
         <v>24</v>
       </c>
       <c r="C145" s="27"/>
-      <c r="D145" s="152"/>
+      <c r="D145" s="149"/>
       <c r="E145" s="27"/>
       <c r="F145" s="27"/>
       <c r="G145" s="28"/>
@@ -13133,18 +13071,18 @@
     <hyperlink ref="D49" r:id="rId13"/>
     <hyperlink ref="D50" r:id="rId14"/>
     <hyperlink ref="D51" r:id="rId15"/>
-    <hyperlink ref="D56" r:id="rId16"/>
-    <hyperlink ref="D57" r:id="rId17"/>
-    <hyperlink ref="D63" r:id="rId18"/>
-    <hyperlink ref="D84" r:id="rId19"/>
-    <hyperlink ref="D85" r:id="rId20"/>
-    <hyperlink ref="D86" r:id="rId21"/>
-    <hyperlink ref="D91" r:id="rId22"/>
-    <hyperlink ref="D105" r:id="rId23"/>
-    <hyperlink ref="D112" r:id="rId24"/>
-    <hyperlink ref="D119" r:id="rId25"/>
-    <hyperlink ref="D133" r:id="rId26"/>
-    <hyperlink ref="D70" r:id="rId27"/>
+    <hyperlink ref="D57" r:id="rId16"/>
+    <hyperlink ref="D63" r:id="rId17"/>
+    <hyperlink ref="D84" r:id="rId18"/>
+    <hyperlink ref="D85" r:id="rId19"/>
+    <hyperlink ref="D86" r:id="rId20"/>
+    <hyperlink ref="D91" r:id="rId21"/>
+    <hyperlink ref="D105" r:id="rId22"/>
+    <hyperlink ref="D112" r:id="rId23"/>
+    <hyperlink ref="D119" r:id="rId24"/>
+    <hyperlink ref="D133" r:id="rId25"/>
+    <hyperlink ref="D70" r:id="rId26"/>
+    <hyperlink ref="D56" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13162,7 +13100,7 @@
     <col min="1" max="1" width="87.28515625"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625"/>
-    <col min="4" max="4" width="9" style="126"/>
+    <col min="4" max="4" width="9" style="125"/>
     <col min="5" max="7" width="9"/>
     <col min="8" max="8" width="5.42578125"/>
     <col min="9" max="9" width="7.5703125"/>
@@ -13302,7 +13240,7 @@
         <v>116</v>
       </c>
       <c r="C6" s="23"/>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="23"/>
@@ -13328,7 +13266,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="23"/>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="23"/>
@@ -13354,7 +13292,7 @@
         <v>116</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="23"/>
@@ -13380,7 +13318,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="23"/>
@@ -13400,13 +13338,13 @@
     </row>
     <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="23"/>
@@ -13426,13 +13364,13 @@
     </row>
     <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="23"/>
@@ -13451,14 +13389,14 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="132"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="130"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="134"/>
+      <c r="H12" s="131"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -13516,13 +13454,13 @@
     </row>
     <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="23"/>
@@ -13548,7 +13486,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="23"/>
@@ -13678,7 +13616,7 @@
         <v>116</v>
       </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="129" t="s">
+      <c r="D22" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="23"/>
@@ -13704,7 +13642,7 @@
         <v>116</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="23"/>
@@ -13730,7 +13668,7 @@
         <v>116</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="129" t="s">
+      <c r="D24" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="23"/>
@@ -13756,7 +13694,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="23"/>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="23"/>
@@ -13782,7 +13720,7 @@
         <v>108</v>
       </c>
       <c r="C26" s="23"/>
-      <c r="D26" s="129" t="s">
+      <c r="D26" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="23"/>
@@ -13802,13 +13740,13 @@
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="73" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="23"/>
@@ -13898,7 +13836,7 @@
         <v>116</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="129" t="s">
+      <c r="D31" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="23"/>
@@ -13924,7 +13862,7 @@
         <v>99</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="129" t="s">
+      <c r="D32" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="23"/>
@@ -14134,11 +14072,11 @@
     </row>
     <row r="42" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
-      <c r="D42" s="130" t="s">
+      <c r="D42" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="23"/>
@@ -14158,11 +14096,11 @@
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="130" t="s">
+      <c r="D43" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="23"/>
@@ -14182,11 +14120,11 @@
     </row>
     <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="130" t="s">
+      <c r="D44" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="23"/>
@@ -14206,11 +14144,11 @@
     </row>
     <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="130" t="s">
+      <c r="D45" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="23"/>
@@ -14230,11 +14168,11 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="130" t="s">
+      <c r="D46" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="23"/>
@@ -14380,11 +14318,11 @@
     </row>
     <row r="53" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
-      <c r="D53" s="130" t="s">
+      <c r="D53" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="23"/>
@@ -14528,11 +14466,11 @@
     </row>
     <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
-      <c r="D60" s="130" t="s">
+      <c r="D60" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="23"/>
@@ -14676,11 +14614,11 @@
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
-      <c r="D67" s="130" t="s">
+      <c r="D67" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="23"/>
@@ -14824,11 +14762,11 @@
     </row>
     <row r="74" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
-      <c r="D74" s="130" t="s">
+      <c r="D74" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E74" s="23"/>
@@ -14852,7 +14790,7 @@
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
-      <c r="D75" s="130" t="s">
+      <c r="D75" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E75" s="23"/>
@@ -14976,11 +14914,11 @@
     </row>
     <row r="81" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
-      <c r="D81" s="130" t="s">
+      <c r="D81" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E81" s="23"/>
@@ -15124,7 +15062,7 @@
     </row>
     <row r="88" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="22" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -15270,11 +15208,11 @@
     </row>
     <row r="95" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
-      <c r="D95" s="130" t="s">
+      <c r="D95" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="23"/>
@@ -15294,11 +15232,11 @@
     </row>
     <row r="96" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
-      <c r="D96" s="130" t="s">
+      <c r="D96" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="23"/>
@@ -15422,11 +15360,11 @@
     </row>
     <row r="102" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
-      <c r="D102" s="130" t="s">
+      <c r="D102" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E102" s="23"/>
@@ -15570,11 +15508,11 @@
     </row>
     <row r="109" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="22" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
-      <c r="D109" s="130" t="s">
+      <c r="D109" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E109" s="23"/>
@@ -15718,7 +15656,7 @@
     </row>
     <row r="116" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="22" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -15864,11 +15802,11 @@
     </row>
     <row r="123" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="22" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
-      <c r="D123" s="130" t="s">
+      <c r="D123" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E123" s="23"/>
@@ -15888,11 +15826,11 @@
     </row>
     <row r="124" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="22" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
-      <c r="D124" s="130" t="s">
+      <c r="D124" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E124" s="23"/>
@@ -15912,11 +15850,11 @@
     </row>
     <row r="125" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="22" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
-      <c r="D125" s="130" t="s">
+      <c r="D125" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E125" s="23"/>
@@ -15936,11 +15874,11 @@
     </row>
     <row r="126" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
-      <c r="D126" s="130" t="s">
+      <c r="D126" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E126" s="23"/>
@@ -16045,16 +15983,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:R1048571"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:D86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="93.140625"/>
     <col min="2" max="2" width="31.7109375"/>
     <col min="3" max="3" width="5.140625"/>
-    <col min="4" max="4" width="9" style="126"/>
+    <col min="4" max="4" width="9" style="125"/>
     <col min="5" max="7" width="9"/>
     <col min="8" max="8" width="5.42578125"/>
     <col min="9" max="18" width="10"/>
@@ -16193,7 +16133,7 @@
         <v>130</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="87"/>
@@ -16343,7 +16283,7 @@
         <v>130</v>
       </c>
       <c r="C13" s="93"/>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="93"/>
@@ -16369,7 +16309,7 @@
         <v>130</v>
       </c>
       <c r="C14" s="93"/>
-      <c r="D14" s="129" t="s">
+      <c r="D14" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="93"/>
@@ -16479,7 +16419,7 @@
         <v>130</v>
       </c>
       <c r="C19" s="93"/>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="93"/>
@@ -16505,7 +16445,7 @@
         <v>130</v>
       </c>
       <c r="C20" s="93"/>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="93"/>
@@ -16531,7 +16471,7 @@
         <v>130</v>
       </c>
       <c r="C21" s="93"/>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="93"/>
@@ -16551,13 +16491,13 @@
     </row>
     <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C22" s="93"/>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="93"/>
@@ -16667,7 +16607,7 @@
         <v>140</v>
       </c>
       <c r="C27" s="93"/>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="93"/>
@@ -16693,7 +16633,7 @@
         <v>142</v>
       </c>
       <c r="C28" s="93"/>
-      <c r="D28" s="129" t="s">
+      <c r="D28" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="93"/>
@@ -16719,7 +16659,7 @@
         <v>143</v>
       </c>
       <c r="C29" s="93"/>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="93"/>
@@ -16738,14 +16678,14 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="128" t="s">
         <v>177</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C30" s="93"/>
-      <c r="D30" s="129" t="s">
+      <c r="D30" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="93"/>
@@ -16835,7 +16775,7 @@
         <v>146</v>
       </c>
       <c r="C34" s="93"/>
-      <c r="D34" s="129" t="s">
+      <c r="D34" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="93"/>
@@ -16854,14 +16794,14 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="131" t="s">
+      <c r="A35" s="128" t="s">
         <v>177</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C35" s="93"/>
-      <c r="D35" s="130" t="s">
+      <c r="D35" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="93"/>
@@ -16971,7 +16911,7 @@
         <v>142</v>
       </c>
       <c r="C40" s="93"/>
-      <c r="D40" s="129" t="s">
+      <c r="D40" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="93"/>
@@ -16997,7 +16937,7 @@
         <v>143</v>
       </c>
       <c r="C41" s="93"/>
-      <c r="D41" s="129" t="s">
+      <c r="D41" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="93"/>
@@ -17023,7 +16963,7 @@
         <v>130</v>
       </c>
       <c r="C42" s="93"/>
-      <c r="D42" s="129" t="s">
+      <c r="D42" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="93"/>
@@ -17049,7 +16989,7 @@
         <v>146</v>
       </c>
       <c r="C43" s="93"/>
-      <c r="D43" s="129" t="s">
+      <c r="D43" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="93"/>
@@ -17068,16 +17008,10 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="132" t="s">
-        <v>197</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>198</v>
-      </c>
+      <c r="A44" s="91"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="93"/>
-      <c r="D44" s="129" t="s">
-        <v>23</v>
-      </c>
+      <c r="D44" s="93"/>
       <c r="E44" s="93"/>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
@@ -17095,13 +17029,15 @@
     </row>
     <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="91"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
+      <c r="B45" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -17113,17 +17049,15 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="91"/>
-      <c r="B46" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
+    <row r="46" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="34"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -17135,15 +17069,17 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="69"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -17155,17 +17091,17 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="69"/>
+    <row r="48" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="70"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -17177,17 +17113,17 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="70"/>
+    <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -17199,17 +17135,17 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
+    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -17221,17 +17157,19 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
+    <row r="51" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -17245,11 +17183,11 @@
     </row>
     <row r="52" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
-      <c r="D52" s="129" t="s">
+      <c r="D52" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="23"/>
@@ -17269,11 +17207,11 @@
     </row>
     <row r="53" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
-      <c r="D53" s="129" t="s">
+      <c r="D53" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="23"/>
@@ -17292,12 +17230,12 @@
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="129" t="s">
+      <c r="A54" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="93"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="23"/>
@@ -17316,12 +17254,12 @@
       <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="93"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="129" t="s">
+      <c r="A55" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="126" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="23"/>
@@ -17340,14 +17278,10 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
-        <v>145</v>
-      </c>
+      <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
-      <c r="D56" s="129" t="s">
-        <v>23</v>
-      </c>
+      <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
@@ -17364,18 +17298,16 @@
       <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="129" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="79"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -17387,15 +17319,17 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -17407,17 +17341,17 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="79"/>
+    <row r="59" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="85"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -17429,17 +17363,19 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
+    <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -17451,17 +17387,15 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
+    <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -17474,14 +17408,10 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
-        <v>199</v>
-      </c>
+      <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
-      <c r="D62" s="129" t="s">
-        <v>23</v>
-      </c>
+      <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
@@ -17498,14 +17428,10 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
-        <v>130</v>
-      </c>
+      <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="129" t="s">
-        <v>23</v>
-      </c>
+      <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
@@ -17523,13 +17449,15 @@
     </row>
     <row r="64" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="B64" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="79"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -17541,15 +17469,17 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
+    <row r="65" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="55"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -17562,10 +17492,14 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
+      <c r="A66" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="D66" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
@@ -17583,15 +17517,13 @@
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="79"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -17603,17 +17535,15 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
+    <row r="68" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -17626,14 +17556,10 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22" t="s">
-        <v>130</v>
-      </c>
+      <c r="A69" s="22"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
-      <c r="D69" s="130" t="s">
-        <v>23</v>
-      </c>
+      <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
@@ -17671,13 +17597,15 @@
     </row>
     <row r="71" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="B71" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="78"/>
+      <c r="H71" s="79"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -17689,15 +17617,17 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+    <row r="72" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -17710,10 +17640,14 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
+      <c r="A73" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="D73" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
@@ -17730,16 +17664,18 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="79"/>
+      <c r="A74" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -17751,17 +17687,15 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
+    <row r="75" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -17774,14 +17708,10 @@
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="22" t="s">
-        <v>200</v>
-      </c>
+      <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
-      <c r="D76" s="130" t="s">
-        <v>23</v>
-      </c>
+      <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
@@ -17798,18 +17728,16 @@
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="78"/>
+      <c r="H77" s="79"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -17821,19 +17749,17 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+    <row r="78" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="46"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -17846,10 +17772,14 @@
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
+      <c r="A79" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
+      <c r="D79" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
@@ -17887,15 +17817,13 @@
     </row>
     <row r="81" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
-      <c r="B81" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C81" s="77"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="79"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -17907,17 +17835,15 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
+    <row r="82" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -17930,14 +17856,10 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
-      <c r="D83" s="130" t="s">
-        <v>23</v>
-      </c>
+      <c r="D83" s="23"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
       <c r="G83" s="23"/>
@@ -17955,13 +17877,15 @@
     </row>
     <row r="84" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+      <c r="B84" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="79"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -17973,15 +17897,17 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+    <row r="85" spans="1:18" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -17994,10 +17920,14 @@
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
+      <c r="A86" s="22" t="s">
+        <v>251</v>
+      </c>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
+      <c r="D86" s="161" t="s">
+        <v>23</v>
+      </c>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
@@ -18035,15 +17965,13 @@
     </row>
     <row r="88" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
-      <c r="B88" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="79"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -18055,17 +17983,15 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:18" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
+    <row r="89" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -18078,18 +18004,16 @@
       <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="79"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -18101,15 +18025,17 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+    <row r="91" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="46"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -18122,10 +18048,14 @@
       <c r="R91" s="1"/>
     </row>
     <row r="92" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="22"/>
+      <c r="A92" s="22" t="s">
+        <v>190</v>
+      </c>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
+      <c r="D92" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
@@ -18142,10 +18072,14 @@
       <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="22"/>
+      <c r="A93" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
+      <c r="D93" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
@@ -18183,15 +18117,13 @@
     </row>
     <row r="95" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22"/>
-      <c r="B95" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="78"/>
-      <c r="H95" s="79"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -18203,17 +18135,15 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
     </row>
-    <row r="96" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B96" s="46"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
+    <row r="96" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -18225,19 +18155,17 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
     </row>
-    <row r="97" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
+    <row r="97" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="22"/>
+      <c r="B97" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="78"/>
+      <c r="H97" s="79"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -18249,19 +18177,17 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
     </row>
-    <row r="98" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
+    <row r="98" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="46"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -18274,10 +18200,14 @@
       <c r="R98" s="1"/>
     </row>
     <row r="99" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="22"/>
+      <c r="A99" s="22" t="s">
+        <v>188</v>
+      </c>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
+      <c r="D99" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
       <c r="G99" s="23"/>
@@ -18333,17 +18263,15 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
     </row>
-    <row r="102" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="22"/>
-      <c r="B102" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="78"/>
-      <c r="H102" s="79"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -18355,17 +18283,15 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B103" s="46"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
+    <row r="103" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -18378,18 +18304,16 @@
       <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="79"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -18401,15 +18325,17 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
     </row>
-    <row r="105" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
+    <row r="105" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="56"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -18422,10 +18348,14 @@
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="22"/>
+      <c r="A106" s="22" t="s">
+        <v>146</v>
+      </c>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
+      <c r="D106" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
       <c r="G106" s="23"/>
@@ -18442,10 +18372,14 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="22"/>
+      <c r="A107" s="22" t="s">
+        <v>184</v>
+      </c>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
+      <c r="D107" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E107" s="23"/>
       <c r="F107" s="23"/>
       <c r="G107" s="23"/>
@@ -18483,15 +18417,13 @@
     </row>
     <row r="109" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="22"/>
-      <c r="B109" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="79"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -18503,17 +18435,15 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
     </row>
-    <row r="110" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B110" s="56"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
+    <row r="110" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -18526,18 +18456,16 @@
       <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="78"/>
+      <c r="H111" s="79"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -18549,19 +18477,17 @@
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
     </row>
-    <row r="112" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
+    <row r="112" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="56"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -18574,10 +18500,14 @@
       <c r="R112" s="1"/>
     </row>
     <row r="113" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="22"/>
+      <c r="A113" s="22" t="s">
+        <v>191</v>
+      </c>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
+      <c r="D113" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E113" s="23"/>
       <c r="F113" s="23"/>
       <c r="G113" s="23"/>
@@ -18594,10 +18524,14 @@
       <c r="R113" s="1"/>
     </row>
     <row r="114" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="22"/>
+      <c r="A114" s="22" t="s">
+        <v>189</v>
+      </c>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
+      <c r="D114" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
@@ -18614,10 +18548,14 @@
       <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="22"/>
+      <c r="A115" s="22" t="s">
+        <v>146</v>
+      </c>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
+      <c r="D115" s="127" t="s">
+        <v>23</v>
+      </c>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="23"/>
@@ -18635,15 +18573,13 @@
     </row>
     <row r="116" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="22"/>
-      <c r="B116" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="77"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="77"/>
-      <c r="G116" s="78"/>
-      <c r="H116" s="79"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -18655,17 +18591,15 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
     </row>
-    <row r="117" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B117" s="56"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="48"/>
-      <c r="H117" s="48"/>
+    <row r="117" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="22"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -18678,18 +18612,16 @@
       <c r="R117" s="1"/>
     </row>
     <row r="118" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="78"/>
+      <c r="H118" s="79"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -18701,118 +18633,8 @@
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
     </row>
-    <row r="119" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-    </row>
-    <row r="120" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-    </row>
-    <row r="121" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="22"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-    </row>
-    <row r="122" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="22"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-    </row>
-    <row r="123" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="22"/>
-      <c r="B123" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="77"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="78"/>
-      <c r="H123" s="79"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-    </row>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1"/>
@@ -18829,32 +18651,28 @@
     <hyperlink ref="D41" r:id="rId12"/>
     <hyperlink ref="D42" r:id="rId13"/>
     <hyperlink ref="D43" r:id="rId14"/>
-    <hyperlink ref="D52" r:id="rId15"/>
-    <hyperlink ref="D53" r:id="rId16"/>
-    <hyperlink ref="D54" r:id="rId17"/>
-    <hyperlink ref="D55" r:id="rId18"/>
-    <hyperlink ref="D56" r:id="rId19"/>
-    <hyperlink ref="D62" r:id="rId20"/>
-    <hyperlink ref="D63" r:id="rId21"/>
-    <hyperlink ref="D22" r:id="rId22"/>
-    <hyperlink ref="D30" r:id="rId23"/>
-    <hyperlink ref="D35" r:id="rId24"/>
-    <hyperlink ref="D44" r:id="rId25"/>
-    <hyperlink ref="D57" r:id="rId26"/>
-    <hyperlink ref="D69" r:id="rId27"/>
-    <hyperlink ref="D76" r:id="rId28"/>
-    <hyperlink ref="D77" r:id="rId29"/>
-    <hyperlink ref="D78" r:id="rId30"/>
-    <hyperlink ref="D83" r:id="rId31"/>
-    <hyperlink ref="D90" r:id="rId32"/>
-    <hyperlink ref="D97" r:id="rId33"/>
-    <hyperlink ref="D98" r:id="rId34"/>
-    <hyperlink ref="D104" r:id="rId35"/>
-    <hyperlink ref="D118" r:id="rId36"/>
-    <hyperlink ref="D119" r:id="rId37"/>
-    <hyperlink ref="D120" r:id="rId38"/>
-    <hyperlink ref="D111" r:id="rId39"/>
-    <hyperlink ref="D112" r:id="rId40"/>
+    <hyperlink ref="D51" r:id="rId15"/>
+    <hyperlink ref="D52" r:id="rId16"/>
+    <hyperlink ref="D53" r:id="rId17"/>
+    <hyperlink ref="D54" r:id="rId18"/>
+    <hyperlink ref="D55" r:id="rId19"/>
+    <hyperlink ref="D60" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D30" r:id="rId22"/>
+    <hyperlink ref="D35" r:id="rId23"/>
+    <hyperlink ref="D66" r:id="rId24"/>
+    <hyperlink ref="D73" r:id="rId25"/>
+    <hyperlink ref="D74" r:id="rId26"/>
+    <hyperlink ref="D79" r:id="rId27"/>
+    <hyperlink ref="D92" r:id="rId28"/>
+    <hyperlink ref="D93" r:id="rId29"/>
+    <hyperlink ref="D99" r:id="rId30"/>
+    <hyperlink ref="D113" r:id="rId31"/>
+    <hyperlink ref="D114" r:id="rId32"/>
+    <hyperlink ref="D115" r:id="rId33"/>
+    <hyperlink ref="D106" r:id="rId34"/>
+    <hyperlink ref="D107" r:id="rId35"/>
+    <hyperlink ref="D86" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -18863,7 +18681,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R136"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -18872,7 +18690,7 @@
     <col min="1" max="1" width="93.140625"/>
     <col min="2" max="2" width="28.28515625"/>
     <col min="3" max="3" width="5.140625"/>
-    <col min="4" max="4" width="9" style="126"/>
+    <col min="4" max="4" width="9" style="125"/>
     <col min="5" max="7" width="9"/>
     <col min="8" max="8" width="5.42578125"/>
     <col min="9" max="18" width="10"/>
@@ -19206,16 +19024,10 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="127" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="128" t="s">
-        <v>193</v>
-      </c>
+      <c r="A15" s="22"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="93"/>
-      <c r="D15" s="125" t="s">
-        <v>23</v>
-      </c>
+      <c r="D15" s="116"/>
       <c r="E15" s="93"/>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
@@ -19232,7 +19044,7 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="76"/>
       <c r="C16" s="93"/>
       <c r="D16" s="116"/>
@@ -19253,13 +19065,15 @@
     </row>
     <row r="17" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="98"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
+      <c r="B17" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -19271,17 +19085,17 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
+    <row r="18" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -19293,17 +19107,21 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+    <row r="19" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -19316,8 +19134,8 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>158</v>
+      <c r="A20" s="99" t="s">
+        <v>159</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>153</v>
@@ -19343,7 +19161,7 @@
     </row>
     <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="99" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>153</v>
@@ -19368,16 +19186,10 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>153</v>
-      </c>
+      <c r="A22" s="22"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="93"/>
-      <c r="D22" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="D22" s="116"/>
       <c r="E22" s="93"/>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
@@ -19394,7 +19206,7 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="76"/>
       <c r="C23" s="93"/>
       <c r="D23" s="116"/>
@@ -19415,13 +19227,15 @@
     </row>
     <row r="24" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
+      <c r="B24" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="92"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -19433,17 +19247,17 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
-      <c r="B25" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
+    <row r="25" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -19455,17 +19269,21 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
+    <row r="26" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="93"/>
+      <c r="D26" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -19479,10 +19297,10 @@
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" s="93"/>
       <c r="D27" s="113" t="s">
@@ -19505,7 +19323,7 @@
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>163</v>
@@ -19531,10 +19349,10 @@
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C29" s="93"/>
       <c r="D29" s="113" t="s">
@@ -19557,7 +19375,7 @@
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>164</v>
@@ -19583,19 +19401,19 @@
     </row>
     <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="93"/>
+        <v>165</v>
+      </c>
+      <c r="B31" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="101"/>
       <c r="D31" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -19608,11 +19426,11 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="100" t="s">
-        <v>165</v>
+      <c r="A32" s="120" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="121" t="s">
+        <v>177</v>
       </c>
       <c r="C32" s="101"/>
       <c r="D32" s="113" t="s">
@@ -19634,20 +19452,16 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="120" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="121" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" s="101"/>
-      <c r="D33" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="92"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -19659,17 +19473,17 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="98"/>
-      <c r="B34" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
+    <row r="34" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -19681,17 +19495,21 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+    <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="93"/>
+      <c r="D35" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -19704,16 +19522,10 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>145</v>
-      </c>
+      <c r="A36" s="98"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="93"/>
-      <c r="D36" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="D36" s="116"/>
       <c r="E36" s="93"/>
       <c r="F36" s="93"/>
       <c r="G36" s="93"/>
@@ -19731,13 +19543,15 @@
     </row>
     <row r="37" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="98"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
+      <c r="B37" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="92"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -19749,17 +19563,17 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="98"/>
-      <c r="B38" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
+    <row r="38" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -19771,17 +19585,21 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
+    <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="93"/>
+      <c r="D39" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -19795,7 +19613,7 @@
     </row>
     <row r="40" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>163</v>
@@ -19821,10 +19639,10 @@
     </row>
     <row r="41" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C41" s="93"/>
       <c r="D41" s="113" t="s">
@@ -19847,7 +19665,7 @@
     </row>
     <row r="42" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>164</v>
@@ -19873,10 +19691,10 @@
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="B43" s="100" t="s">
+        <v>165</v>
       </c>
       <c r="C43" s="93"/>
       <c r="D43" s="113" t="s">
@@ -19898,11 +19716,11 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="100" t="s">
-        <v>165</v>
+      <c r="A44" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>162</v>
       </c>
       <c r="C44" s="93"/>
       <c r="D44" s="113" t="s">
@@ -19924,11 +19742,11 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="102" t="s">
-        <v>139</v>
+      <c r="A45" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C45" s="93"/>
       <c r="D45" s="113" t="s">
@@ -19950,16 +19768,10 @@
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>168</v>
-      </c>
+      <c r="A46" s="98"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="93"/>
-      <c r="D46" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="D46" s="116"/>
       <c r="E46" s="93"/>
       <c r="F46" s="93"/>
       <c r="G46" s="93"/>
@@ -19976,20 +19788,16 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="92"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -20001,15 +19809,17 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="98"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
+    <row r="48" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -20022,16 +19832,20 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="98"/>
-      <c r="B49" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
+      <c r="A49" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="93"/>
+      <c r="D49" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -20043,17 +19857,15 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
+    <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -20066,16 +19878,10 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>170</v>
-      </c>
+      <c r="A51" s="22"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="93"/>
-      <c r="D51" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="D51" s="116"/>
       <c r="E51" s="93"/>
       <c r="F51" s="93"/>
       <c r="G51" s="93"/>
@@ -20092,8 +19898,8 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="76"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="93"/>
       <c r="D52" s="116"/>
       <c r="E52" s="93"/>
@@ -20112,14 +19918,16 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="92"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -20131,15 +19939,15 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="98"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
+    <row r="54" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -20151,17 +19959,17 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="98"/>
-      <c r="B55" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="69"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -20174,14 +19982,16 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="A56" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="70"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -20193,17 +20003,17 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="69"/>
+    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -20215,17 +20025,17 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="123"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="70"/>
+    <row r="58" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -20237,17 +20047,19 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
+    <row r="59" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -20259,17 +20071,19 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
+    <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -20283,7 +20097,7 @@
     </row>
     <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -20307,7 +20121,7 @@
     </row>
     <row r="62" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -20331,7 +20145,7 @@
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -20355,7 +20169,7 @@
     </row>
     <row r="64" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -20379,7 +20193,7 @@
     </row>
     <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -20403,7 +20217,7 @@
     </row>
     <row r="66" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -20427,7 +20241,7 @@
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -20450,17 +20264,13 @@
       <c r="R67" s="1"/>
     </row>
     <row r="68" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22" t="s">
-        <v>145</v>
-      </c>
+      <c r="A68" s="22"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
-      <c r="D68" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="D68" s="113"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
+      <c r="G68" s="31"/>
       <c r="H68" s="23"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -20474,18 +20284,16 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="77"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="79"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -20497,19 +20305,17 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -20521,15 +20327,17 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="113"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="23"/>
+    <row r="71" spans="1:18" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="85"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -20542,16 +20350,18 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="77"/>
-      <c r="D72" s="117"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="79"/>
+      <c r="A72" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -20563,17 +20373,15 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
+    <row r="73" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -20585,17 +20393,15 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="1:18" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="85"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="110"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
+    <row r="74" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -20608,14 +20414,10 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
-        <v>184</v>
-      </c>
+      <c r="A75" s="22"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
-      <c r="D75" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="D75" s="32"/>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
@@ -20632,18 +20434,16 @@
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="77"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="79"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -20655,15 +20455,17 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+    <row r="77" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+      <c r="A77" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="55"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -20676,10 +20478,14 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
+      <c r="A78" s="22" t="s">
+        <v>153</v>
+      </c>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
-      <c r="D78" s="32"/>
+      <c r="D78" s="124" t="s">
+        <v>23</v>
+      </c>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
@@ -20717,15 +20523,13 @@
     </row>
     <row r="80" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
-      <c r="B80" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="77"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="78"/>
-      <c r="H80" s="79"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -20737,17 +20541,15 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A81" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="55"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="111"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
+    <row r="81" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -20760,14 +20562,10 @@
       <c r="R81" s="1"/>
     </row>
     <row r="82" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="22" t="s">
-        <v>153</v>
-      </c>
+      <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
-      <c r="D82" s="124" t="s">
-        <v>23</v>
-      </c>
+      <c r="D82" s="32"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
@@ -20785,13 +20583,15 @@
     </row>
     <row r="83" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
+      <c r="B83" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="77"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="79"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -20803,15 +20603,17 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+    <row r="84" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="111"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -20824,10 +20626,14 @@
       <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="22"/>
+      <c r="A85" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
-      <c r="D85" s="32"/>
+      <c r="D85" s="113" t="s">
+        <v>23</v>
+      </c>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
@@ -20844,10 +20650,14 @@
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
+      <c r="A86" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
-      <c r="D86" s="32"/>
+      <c r="D86" s="113" t="s">
+        <v>23</v>
+      </c>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
@@ -20864,16 +20674,18 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="B87" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="77"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="78"/>
-      <c r="H87" s="79"/>
+      <c r="A87" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -20885,17 +20697,19 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
     </row>
-    <row r="88" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="111"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
+    <row r="88" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -20908,14 +20722,10 @@
       <c r="R88" s="1"/>
     </row>
     <row r="89" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="22" t="s">
-        <v>185</v>
-      </c>
+      <c r="A89" s="22"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
-      <c r="D89" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="D89" s="32"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
@@ -20932,18 +20742,16 @@
       <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="77"/>
+      <c r="D90" s="117"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="79"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -20955,19 +20763,17 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+    <row r="91" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="46"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -20981,7 +20787,7 @@
     </row>
     <row r="92" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -21004,14 +20810,10 @@
       <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="22" t="s">
-        <v>189</v>
-      </c>
+      <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
-      <c r="D93" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="D93" s="32"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
@@ -21049,15 +20851,13 @@
     </row>
     <row r="95" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22"/>
-      <c r="B95" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="77"/>
-      <c r="D95" s="117"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="78"/>
-      <c r="H95" s="79"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -21069,17 +20869,15 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
     </row>
-    <row r="96" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="46"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="111"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
+    <row r="96" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -21092,18 +20890,16 @@
       <c r="R96" s="1"/>
     </row>
     <row r="97" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="77"/>
+      <c r="D97" s="117"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="78"/>
+      <c r="H97" s="79"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -21115,15 +20911,17 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
     </row>
-    <row r="98" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
+    <row r="98" spans="1:18" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="111"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -21136,10 +20934,14 @@
       <c r="R98" s="1"/>
     </row>
     <row r="99" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="32"/>
+      <c r="A99" s="147" t="s">
+        <v>251</v>
+      </c>
+      <c r="B99" s="148"/>
+      <c r="C99" s="148"/>
+      <c r="D99" s="161" t="s">
+        <v>23</v>
+      </c>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
       <c r="G99" s="23"/>
@@ -21197,15 +20999,13 @@
     </row>
     <row r="102" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="22"/>
-      <c r="B102" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="78"/>
-      <c r="H102" s="79"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -21217,17 +21017,15 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:18" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
+    <row r="103" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -21240,18 +21038,16 @@
       <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="117"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="79"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -21263,15 +21059,17 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
     </row>
-    <row r="105" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
+    <row r="105" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="46"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="111"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -21284,10 +21082,14 @@
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="22"/>
+      <c r="A106" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
-      <c r="D106" s="32"/>
+      <c r="D106" s="113" t="s">
+        <v>23</v>
+      </c>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
       <c r="G106" s="23"/>
@@ -21345,15 +21147,13 @@
     </row>
     <row r="109" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="22"/>
-      <c r="B109" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="117"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="79"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -21365,17 +21165,17 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
     </row>
-    <row r="110" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B110" s="46"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="111"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
+    <row r="110" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="22"/>
+      <c r="B110" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="77"/>
+      <c r="D110" s="117"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="78"/>
+      <c r="H110" s="79"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -21387,19 +21187,17 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
     </row>
-    <row r="111" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
+    <row r="111" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" s="46"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="111"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -21412,14 +21210,10 @@
       <c r="R111" s="1"/>
     </row>
     <row r="112" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="22" t="s">
-        <v>192</v>
-      </c>
+      <c r="A112" s="22"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
-      <c r="D112" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="D112" s="32"/>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
       <c r="G112" s="23"/>
@@ -21477,13 +21271,15 @@
     </row>
     <row r="115" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="22"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
+      <c r="B115" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="77"/>
+      <c r="D115" s="117"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="78"/>
+      <c r="H115" s="79"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -21495,17 +21291,17 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
     </row>
-    <row r="116" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="22"/>
-      <c r="B116" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="77"/>
-      <c r="D116" s="117"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="77"/>
-      <c r="G116" s="78"/>
-      <c r="H116" s="79"/>
+    <row r="116" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="56"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="111"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -21517,17 +21313,19 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
     </row>
-    <row r="117" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B117" s="46"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="111"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="48"/>
-      <c r="H117" s="48"/>
+    <row r="117" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -21541,7 +21339,7 @@
     </row>
     <row r="118" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="22" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -21647,7 +21445,7 @@
     </row>
     <row r="123" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -21669,7 +21467,7 @@
     </row>
     <row r="124" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="22" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
@@ -21757,13 +21555,15 @@
     </row>
     <row r="128" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="22"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="23"/>
+      <c r="B128" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="77"/>
+      <c r="D128" s="117"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="77"/>
+      <c r="G128" s="78"/>
+      <c r="H128" s="79"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -21775,241 +21575,55 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
     </row>
-    <row r="129" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="22"/>
-      <c r="B129" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" s="77"/>
-      <c r="D129" s="117"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="77"/>
-      <c r="G129" s="78"/>
-      <c r="H129" s="79"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-    </row>
-    <row r="130" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B130" s="56"/>
-      <c r="C130" s="56"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="111"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="48"/>
-      <c r="H130" s="48"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-    </row>
-    <row r="131" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-    </row>
-    <row r="132" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-    </row>
-    <row r="133" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B133" s="23"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23"/>
-      <c r="H133" s="23"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-    </row>
-    <row r="134" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="22"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-    </row>
-    <row r="135" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="22"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="23"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-    </row>
-    <row r="136" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="22"/>
-      <c r="B136" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="77"/>
-      <c r="D136" s="117"/>
-      <c r="E136" s="77"/>
-      <c r="F136" s="77"/>
-      <c r="G136" s="78"/>
-      <c r="H136" s="79"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1"/>
     <hyperlink ref="D13" r:id="rId2"/>
     <hyperlink ref="D14" r:id="rId3"/>
-    <hyperlink ref="D20" r:id="rId4"/>
-    <hyperlink ref="D21" r:id="rId5"/>
-    <hyperlink ref="D22" r:id="rId6"/>
-    <hyperlink ref="D32" r:id="rId7"/>
-    <hyperlink ref="D31" r:id="rId8"/>
-    <hyperlink ref="D30" r:id="rId9"/>
-    <hyperlink ref="D27" r:id="rId10"/>
-    <hyperlink ref="D28" r:id="rId11"/>
-    <hyperlink ref="D29" r:id="rId12"/>
-    <hyperlink ref="D33" r:id="rId13"/>
-    <hyperlink ref="D36" r:id="rId14"/>
-    <hyperlink ref="D46" r:id="rId15"/>
-    <hyperlink ref="D51" r:id="rId16"/>
-    <hyperlink ref="D40" r:id="rId17"/>
-    <hyperlink ref="D41" r:id="rId18"/>
-    <hyperlink ref="D42" r:id="rId19"/>
-    <hyperlink ref="D43" r:id="rId20"/>
-    <hyperlink ref="D44" r:id="rId21"/>
-    <hyperlink ref="D45" r:id="rId22"/>
-    <hyperlink ref="D47" r:id="rId23"/>
-    <hyperlink ref="D61" r:id="rId24"/>
-    <hyperlink ref="D70" r:id="rId25"/>
-    <hyperlink ref="D69" r:id="rId26"/>
-    <hyperlink ref="D68" r:id="rId27"/>
-    <hyperlink ref="D67" r:id="rId28"/>
-    <hyperlink ref="D66" r:id="rId29"/>
+    <hyperlink ref="D19" r:id="rId4"/>
+    <hyperlink ref="D20" r:id="rId5"/>
+    <hyperlink ref="D21" r:id="rId6"/>
+    <hyperlink ref="D31" r:id="rId7"/>
+    <hyperlink ref="D30" r:id="rId8"/>
+    <hyperlink ref="D29" r:id="rId9"/>
+    <hyperlink ref="D26" r:id="rId10"/>
+    <hyperlink ref="D27" r:id="rId11"/>
+    <hyperlink ref="D28" r:id="rId12"/>
+    <hyperlink ref="D32" r:id="rId13"/>
+    <hyperlink ref="D35" r:id="rId14"/>
+    <hyperlink ref="D45" r:id="rId15"/>
+    <hyperlink ref="D49" r:id="rId16"/>
+    <hyperlink ref="D39" r:id="rId17"/>
+    <hyperlink ref="D40" r:id="rId18"/>
+    <hyperlink ref="D41" r:id="rId19"/>
+    <hyperlink ref="D42" r:id="rId20"/>
+    <hyperlink ref="D43" r:id="rId21"/>
+    <hyperlink ref="D44" r:id="rId22"/>
+    <hyperlink ref="D59" r:id="rId23"/>
+    <hyperlink ref="D67" r:id="rId24"/>
+    <hyperlink ref="D66" r:id="rId25"/>
+    <hyperlink ref="D65" r:id="rId26"/>
+    <hyperlink ref="D64" r:id="rId27"/>
+    <hyperlink ref="D60" r:id="rId28"/>
+    <hyperlink ref="D61" r:id="rId29"/>
     <hyperlink ref="D62" r:id="rId30"/>
     <hyperlink ref="D63" r:id="rId31"/>
-    <hyperlink ref="D64" r:id="rId32"/>
-    <hyperlink ref="D65" r:id="rId33"/>
-    <hyperlink ref="D75" r:id="rId34"/>
-    <hyperlink ref="D76" r:id="rId35"/>
-    <hyperlink ref="D82" r:id="rId36"/>
-    <hyperlink ref="D89" r:id="rId37"/>
-    <hyperlink ref="D91" r:id="rId38"/>
-    <hyperlink ref="D90" r:id="rId39"/>
-    <hyperlink ref="D92" r:id="rId40"/>
-    <hyperlink ref="D97" r:id="rId41"/>
-    <hyperlink ref="D104" r:id="rId42"/>
-    <hyperlink ref="D93" r:id="rId43"/>
-    <hyperlink ref="D133" r:id="rId44"/>
-    <hyperlink ref="D132" r:id="rId45"/>
-    <hyperlink ref="D131" r:id="rId46"/>
-    <hyperlink ref="D125" r:id="rId47"/>
-    <hyperlink ref="D124" r:id="rId48"/>
-    <hyperlink ref="D118" r:id="rId49"/>
-    <hyperlink ref="D20:D22" r:id="rId50" display="X"/>
-    <hyperlink ref="D111" r:id="rId51"/>
-    <hyperlink ref="D112" r:id="rId52"/>
-    <hyperlink ref="D15" r:id="rId53"/>
+    <hyperlink ref="D72" r:id="rId32"/>
+    <hyperlink ref="D78" r:id="rId33"/>
+    <hyperlink ref="D86" r:id="rId34"/>
+    <hyperlink ref="D85" r:id="rId35"/>
+    <hyperlink ref="D87" r:id="rId36"/>
+    <hyperlink ref="D92" r:id="rId37"/>
+    <hyperlink ref="D88" r:id="rId38"/>
+    <hyperlink ref="D125" r:id="rId39"/>
+    <hyperlink ref="D124" r:id="rId40"/>
+    <hyperlink ref="D118" r:id="rId41"/>
+    <hyperlink ref="D117" r:id="rId42"/>
+    <hyperlink ref="D19:D21" r:id="rId43" display="X"/>
+    <hyperlink ref="D106" r:id="rId44"/>
+    <hyperlink ref="D99" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>